--- a/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.89816821603256</v>
+        <v>20.89816821603261</v>
       </c>
       <c r="C2">
-        <v>14.58022526556236</v>
+        <v>14.58022526556225</v>
       </c>
       <c r="D2">
-        <v>2.689698005025591</v>
+        <v>2.689698005025459</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.60099970750726</v>
+        <v>36.60099970750733</v>
       </c>
       <c r="G2">
-        <v>27.48537986766453</v>
+        <v>27.48537986766455</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.79788359679949</v>
+        <v>10.79788359679946</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.25008420250974</v>
+        <v>19.25008420250971</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.43084153940022</v>
+        <v>19.43084153940017</v>
       </c>
       <c r="C3">
-        <v>13.62622381480169</v>
+        <v>13.62622381480159</v>
       </c>
       <c r="D3">
-        <v>2.701629740121924</v>
+        <v>2.701629740121862</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.67282771673752</v>
+        <v>34.67282771673751</v>
       </c>
       <c r="G3">
-        <v>26.18390925211999</v>
+        <v>26.18390925212001</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.32422939926447</v>
+        <v>10.32422939926446</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.89654122158075</v>
+        <v>17.89654122158069</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.48365201682664</v>
+        <v>18.48365201682661</v>
       </c>
       <c r="C4">
-        <v>13.0120950507708</v>
+        <v>13.01209505077086</v>
       </c>
       <c r="D4">
-        <v>2.708497309277972</v>
+        <v>2.708497309277837</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.47921843645778</v>
+        <v>33.4792184364579</v>
       </c>
       <c r="G4">
-        <v>25.38559702558524</v>
+        <v>25.38559702558532</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.08584050608082</v>
+        <v>18.08584050608078</v>
       </c>
       <c r="C5">
-        <v>12.75460581018601</v>
+        <v>12.75460581018574</v>
       </c>
       <c r="D5">
         <v>2.71118988711764</v>
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.99073858685838</v>
+        <v>32.99073858685852</v>
       </c>
       <c r="G5">
-        <v>25.06071118961888</v>
+        <v>25.06071118961901</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.920409303219781</v>
+        <v>9.920409303219765</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.66062642434482</v>
+        <v>16.66062642434474</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.01906458692456</v>
+        <v>18.01906458692454</v>
       </c>
       <c r="C6">
-        <v>12.71141107103025</v>
+        <v>12.71141107103015</v>
       </c>
       <c r="D6">
-        <v>2.711630843692312</v>
+        <v>2.711630843692445</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.90951453538437</v>
+        <v>32.90951453538433</v>
       </c>
       <c r="G6">
-        <v>25.00679833029088</v>
+        <v>25.00679833029087</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.901153128656428</v>
+        <v>9.901153128656446</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.59938420112072</v>
+        <v>16.59938420112069</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.47833511653148</v>
+        <v>18.47833511653144</v>
       </c>
       <c r="C7">
-        <v>13.0086518317926</v>
+        <v>13.00865183179252</v>
       </c>
       <c r="D7">
-        <v>2.70853403977352</v>
+        <v>2.708534039773721</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>33.47263845688432</v>
       </c>
       <c r="G7">
-        <v>25.38121339408362</v>
+        <v>25.38121339408368</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.03513208637238</v>
+        <v>10.03513208637231</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.02081981800872</v>
+        <v>17.02081981800875</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40171028482022</v>
+        <v>20.40171028482029</v>
       </c>
       <c r="C8">
-        <v>14.25711117586866</v>
+        <v>14.25711117586865</v>
       </c>
       <c r="D8">
-        <v>2.693913064288291</v>
+        <v>2.693913064288289</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.93836232883385</v>
+        <v>35.93836232883397</v>
       </c>
       <c r="G8">
-        <v>27.03658601367554</v>
+        <v>27.03658601367562</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.63390200726433</v>
+        <v>10.63390200726435</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.79150595685377</v>
+        <v>18.79150595685376</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.8160881566842</v>
+        <v>23.81608815668424</v>
       </c>
       <c r="C9">
-        <v>16.48548972207395</v>
+        <v>16.48548972207405</v>
       </c>
       <c r="D9">
-        <v>2.661141988213737</v>
+        <v>2.661141988213864</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.68712705038897</v>
+        <v>40.68712705038898</v>
       </c>
       <c r="G9">
-        <v>30.28276457548132</v>
+        <v>30.28276457548136</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.83373989979842</v>
+        <v>11.83373989979846</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.95860366507344</v>
+        <v>21.95860366507349</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.12148236569108</v>
+        <v>26.12148236569106</v>
       </c>
       <c r="C10">
-        <v>17.99749910852172</v>
+        <v>17.99749910852176</v>
       </c>
       <c r="D10">
-        <v>2.633848477349752</v>
+        <v>2.63384847734969</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.12055041566366</v>
+        <v>44.1205504156637</v>
       </c>
       <c r="G10">
-        <v>32.66569900336489</v>
+        <v>32.66569900336491</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.73273869488544</v>
+        <v>12.73273869488543</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.11552887610477</v>
+        <v>24.11552887610475</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>27.12987628668306</v>
       </c>
       <c r="C11">
-        <v>18.66059689497968</v>
+        <v>18.66059689497953</v>
       </c>
       <c r="D11">
-        <v>2.620548154016098</v>
+        <v>2.620548154016364</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.67282822015415</v>
+        <v>45.67282822015402</v>
       </c>
       <c r="G11">
-        <v>33.75088739936741</v>
+        <v>33.75088739936731</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.14675093340951</v>
+        <v>13.14675093340948</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.06406125294317</v>
+        <v>25.06406125294315</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.50628222367649</v>
+        <v>27.50628222367648</v>
       </c>
       <c r="C12">
-        <v>18.90838067258734</v>
+        <v>18.90838067258719</v>
       </c>
       <c r="D12">
-        <v>2.615366504086796</v>
+        <v>2.615366504086792</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.2596536439049</v>
+        <v>46.25965364390473</v>
       </c>
       <c r="G12">
-        <v>34.16226338975212</v>
+        <v>34.162263389752</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.30442147624665</v>
+        <v>13.30442147624663</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.4189559077351</v>
+        <v>25.41895590773508</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.42545282646255</v>
+        <v>27.42545282646244</v>
       </c>
       <c r="C13">
-        <v>18.85515932394447</v>
+        <v>18.85515932394445</v>
       </c>
       <c r="D13">
-        <v>2.616489231826444</v>
+        <v>2.616489231826708</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.13330617460748</v>
+        <v>46.13330617460736</v>
       </c>
       <c r="G13">
-        <v>34.0736410833796</v>
+        <v>34.07364108337953</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.27042129500747</v>
+        <v>13.27042129500744</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.34270691466424</v>
+        <v>25.34270691466417</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.1609505036546</v>
+        <v>27.16095050365455</v>
       </c>
       <c r="C14">
-        <v>18.68104719274543</v>
+        <v>18.68104719274534</v>
       </c>
       <c r="D14">
-        <v>2.620124876528201</v>
+        <v>2.620124876528135</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.72112365604794</v>
+        <v>45.72112365604787</v>
       </c>
       <c r="G14">
-        <v>33.78472077438851</v>
+        <v>33.78472077438847</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.15970352010893</v>
+        <v>13.15970352010894</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.09334218813133</v>
+        <v>25.09334218813129</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.99823649739922</v>
+        <v>26.99823649739935</v>
       </c>
       <c r="C15">
         <v>18.57397423136367</v>
       </c>
       <c r="D15">
-        <v>2.622332341251012</v>
+        <v>2.622332341251081</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.46853578141945</v>
+        <v>45.46853578141932</v>
       </c>
       <c r="G15">
-        <v>33.60781596876904</v>
+        <v>33.60781596876893</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.94005285396318</v>
+        <v>24.94005285396329</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05479858190946</v>
+        <v>26.05479858190945</v>
       </c>
       <c r="C16">
-        <v>17.95368613984732</v>
+        <v>17.95368613984738</v>
       </c>
       <c r="D16">
-        <v>2.634698412015548</v>
+        <v>2.634698412015482</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.70579661741753</v>
+        <v>12.70579661741755</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.46593279573792</v>
+        <v>25.46593279573789</v>
       </c>
       <c r="C17">
-        <v>17.56698540201158</v>
+        <v>17.56698540201151</v>
       </c>
       <c r="D17">
-        <v>2.642046088115908</v>
+        <v>2.642046088115841</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.12743009476638</v>
+        <v>43.12743009476633</v>
       </c>
       <c r="G17">
-        <v>31.97384081665224</v>
+        <v>31.97384081665223</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.47026322079985</v>
+        <v>12.47026322079983</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.50058935633038</v>
+        <v>23.50058935633037</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.12341224099332</v>
+        <v>25.12341224099326</v>
       </c>
       <c r="C18">
-        <v>17.34222202571826</v>
+        <v>17.3422220257181</v>
       </c>
       <c r="D18">
-        <v>2.646190244214002</v>
+        <v>2.646190244214202</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.61371874507085</v>
+        <v>42.61371874507082</v>
       </c>
       <c r="G18">
-        <v>31.61675590990797</v>
+        <v>31.61675590990796</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.3352530333364</v>
+        <v>12.33525303333639</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.00677454085948</v>
+        <v>25.00677454085962</v>
       </c>
       <c r="C19">
-        <v>17.26571187405097</v>
+        <v>17.26571187405094</v>
       </c>
       <c r="D19">
-        <v>2.647579801944056</v>
+        <v>2.647579801943847</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.43961467419967</v>
+        <v>42.43961467419977</v>
       </c>
       <c r="G19">
-        <v>31.49586194843202</v>
+        <v>31.49586194843208</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.28961617925674</v>
+        <v>12.28961617925675</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.07064753721845</v>
+        <v>23.07064753721844</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.5290115813862</v>
+        <v>25.52901158138634</v>
       </c>
       <c r="C20">
-        <v>17.6083912746688</v>
+        <v>17.6083912746687</v>
       </c>
       <c r="D20">
-        <v>2.641272527594341</v>
+        <v>2.641272527594539</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.22242774847053</v>
+        <v>43.22242774847057</v>
       </c>
       <c r="G20">
-        <v>32.0399348161146</v>
+        <v>32.03993481611462</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.49528727526409</v>
+        <v>12.49528727526412</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.55970373911882</v>
+        <v>23.55970373911891</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,16 +1137,16 @@
         <v>27.23878616328268</v>
       </c>
       <c r="C21">
-        <v>18.73227608067933</v>
+        <v>18.7322760806795</v>
       </c>
       <c r="D21">
-        <v>2.619061093306979</v>
+        <v>2.619061093306906</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.84221450527093</v>
+        <v>45.84221450527091</v>
       </c>
       <c r="G21">
         <v>33.8695690058748</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.16669968430826</v>
+        <v>25.16669968430827</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.32464821516373</v>
+        <v>28.32464821516379</v>
       </c>
       <c r="C22">
-        <v>19.44760516804182</v>
+        <v>19.44760516804181</v>
       </c>
       <c r="D22">
-        <v>2.603688587925267</v>
+        <v>2.603688587925126</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.54894249595989</v>
+        <v>47.54894249596001</v>
       </c>
       <c r="G22">
-        <v>35.06811433319073</v>
+        <v>35.06811433319083</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.72709147540988</v>
+        <v>13.72709147540987</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.74786397147069</v>
+        <v>27.74786397147064</v>
       </c>
       <c r="C23">
-        <v>19.06748793449592</v>
+        <v>19.06748793449568</v>
       </c>
       <c r="D23">
-        <v>2.611978128730716</v>
+        <v>2.611978128730594</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.63835373488148</v>
+        <v>46.63835373488136</v>
       </c>
       <c r="G23">
-        <v>34.42805241527538</v>
+        <v>34.4280524152753</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.41207995342804</v>
+        <v>13.41207995342803</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.64697589205268</v>
+        <v>25.6469758920526</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.50050606560543</v>
+        <v>25.5005060656054</v>
       </c>
       <c r="C24">
         <v>17.58967930951702</v>
       </c>
       <c r="D24">
-        <v>2.641622502547337</v>
+        <v>2.6416225025472</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.17948297890231</v>
+        <v>43.17948297890235</v>
       </c>
       <c r="G24">
-        <v>32.01005396744091</v>
+        <v>32.01005396744095</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.48397266264989</v>
+        <v>12.4839726626499</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.92923613974096</v>
+        <v>22.92923613974095</v>
       </c>
       <c r="C25">
-        <v>15.90536454673236</v>
+        <v>15.90536454673241</v>
       </c>
       <c r="D25">
-        <v>2.670515492794398</v>
+        <v>2.67051549279453</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.41251729583868</v>
+        <v>39.4125172958387</v>
       </c>
       <c r="G25">
-        <v>29.40513324463706</v>
+        <v>29.40513324463709</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.13294542887608</v>
+        <v>21.13294542887609</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.89816821603261</v>
+        <v>20.89816821603256</v>
       </c>
       <c r="C2">
-        <v>14.58022526556225</v>
+        <v>14.58022526556236</v>
       </c>
       <c r="D2">
-        <v>2.689698005025459</v>
+        <v>2.689698005025591</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.60099970750733</v>
+        <v>36.60099970750726</v>
       </c>
       <c r="G2">
-        <v>27.48537986766455</v>
+        <v>27.48537986766453</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.79788359679946</v>
+        <v>10.79788359679949</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.25008420250971</v>
+        <v>19.25008420250974</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.43084153940017</v>
+        <v>19.43084153940022</v>
       </c>
       <c r="C3">
-        <v>13.62622381480159</v>
+        <v>13.62622381480169</v>
       </c>
       <c r="D3">
-        <v>2.701629740121862</v>
+        <v>2.701629740121924</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.67282771673751</v>
+        <v>34.67282771673752</v>
       </c>
       <c r="G3">
-        <v>26.18390925212001</v>
+        <v>26.18390925211999</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.32422939926446</v>
+        <v>10.32422939926447</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.89654122158069</v>
+        <v>17.89654122158075</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.48365201682661</v>
+        <v>18.48365201682664</v>
       </c>
       <c r="C4">
-        <v>13.01209505077086</v>
+        <v>13.0120950507708</v>
       </c>
       <c r="D4">
-        <v>2.708497309277837</v>
+        <v>2.708497309277972</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.4792184364579</v>
+        <v>33.47921843645778</v>
       </c>
       <c r="G4">
-        <v>25.38559702558532</v>
+        <v>25.38559702558524</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.08584050608078</v>
+        <v>18.08584050608082</v>
       </c>
       <c r="C5">
-        <v>12.75460581018574</v>
+        <v>12.75460581018601</v>
       </c>
       <c r="D5">
         <v>2.71118988711764</v>
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.99073858685852</v>
+        <v>32.99073858685838</v>
       </c>
       <c r="G5">
-        <v>25.06071118961901</v>
+        <v>25.06071118961888</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.920409303219765</v>
+        <v>9.920409303219781</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.66062642434474</v>
+        <v>16.66062642434482</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.01906458692454</v>
+        <v>18.01906458692456</v>
       </c>
       <c r="C6">
-        <v>12.71141107103015</v>
+        <v>12.71141107103025</v>
       </c>
       <c r="D6">
-        <v>2.711630843692445</v>
+        <v>2.711630843692312</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.90951453538433</v>
+        <v>32.90951453538437</v>
       </c>
       <c r="G6">
-        <v>25.00679833029087</v>
+        <v>25.00679833029088</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.901153128656446</v>
+        <v>9.901153128656428</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.59938420112069</v>
+        <v>16.59938420112072</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.47833511653144</v>
+        <v>18.47833511653148</v>
       </c>
       <c r="C7">
-        <v>13.00865183179252</v>
+        <v>13.0086518317926</v>
       </c>
       <c r="D7">
-        <v>2.708534039773721</v>
+        <v>2.70853403977352</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>33.47263845688432</v>
       </c>
       <c r="G7">
-        <v>25.38121339408368</v>
+        <v>25.38121339408362</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.03513208637231</v>
+        <v>10.03513208637238</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.02081981800875</v>
+        <v>17.02081981800872</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40171028482029</v>
+        <v>20.40171028482022</v>
       </c>
       <c r="C8">
-        <v>14.25711117586865</v>
+        <v>14.25711117586866</v>
       </c>
       <c r="D8">
-        <v>2.693913064288289</v>
+        <v>2.693913064288291</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.93836232883397</v>
+        <v>35.93836232883385</v>
       </c>
       <c r="G8">
-        <v>27.03658601367562</v>
+        <v>27.03658601367554</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.63390200726435</v>
+        <v>10.63390200726433</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.79150595685376</v>
+        <v>18.79150595685377</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.81608815668424</v>
+        <v>23.8160881566842</v>
       </c>
       <c r="C9">
-        <v>16.48548972207405</v>
+        <v>16.48548972207395</v>
       </c>
       <c r="D9">
-        <v>2.661141988213864</v>
+        <v>2.661141988213737</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.68712705038898</v>
+        <v>40.68712705038897</v>
       </c>
       <c r="G9">
-        <v>30.28276457548136</v>
+        <v>30.28276457548132</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.83373989979846</v>
+        <v>11.83373989979842</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.95860366507349</v>
+        <v>21.95860366507344</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.12148236569106</v>
+        <v>26.12148236569108</v>
       </c>
       <c r="C10">
-        <v>17.99749910852176</v>
+        <v>17.99749910852172</v>
       </c>
       <c r="D10">
-        <v>2.63384847734969</v>
+        <v>2.633848477349752</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.1205504156637</v>
+        <v>44.12055041566366</v>
       </c>
       <c r="G10">
-        <v>32.66569900336491</v>
+        <v>32.66569900336489</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.73273869488543</v>
+        <v>12.73273869488544</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.11552887610475</v>
+        <v>24.11552887610477</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>27.12987628668306</v>
       </c>
       <c r="C11">
-        <v>18.66059689497953</v>
+        <v>18.66059689497968</v>
       </c>
       <c r="D11">
-        <v>2.620548154016364</v>
+        <v>2.620548154016098</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.67282822015402</v>
+        <v>45.67282822015415</v>
       </c>
       <c r="G11">
-        <v>33.75088739936731</v>
+        <v>33.75088739936741</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.14675093340948</v>
+        <v>13.14675093340951</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.06406125294315</v>
+        <v>25.06406125294317</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.50628222367648</v>
+        <v>27.50628222367649</v>
       </c>
       <c r="C12">
-        <v>18.90838067258719</v>
+        <v>18.90838067258734</v>
       </c>
       <c r="D12">
-        <v>2.615366504086792</v>
+        <v>2.615366504086796</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.25965364390473</v>
+        <v>46.2596536439049</v>
       </c>
       <c r="G12">
-        <v>34.162263389752</v>
+        <v>34.16226338975212</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.30442147624663</v>
+        <v>13.30442147624665</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.41895590773508</v>
+        <v>25.4189559077351</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.42545282646244</v>
+        <v>27.42545282646255</v>
       </c>
       <c r="C13">
-        <v>18.85515932394445</v>
+        <v>18.85515932394447</v>
       </c>
       <c r="D13">
-        <v>2.616489231826708</v>
+        <v>2.616489231826444</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.13330617460736</v>
+        <v>46.13330617460748</v>
       </c>
       <c r="G13">
-        <v>34.07364108337953</v>
+        <v>34.0736410833796</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.27042129500744</v>
+        <v>13.27042129500747</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.34270691466417</v>
+        <v>25.34270691466424</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.16095050365455</v>
+        <v>27.1609505036546</v>
       </c>
       <c r="C14">
-        <v>18.68104719274534</v>
+        <v>18.68104719274543</v>
       </c>
       <c r="D14">
-        <v>2.620124876528135</v>
+        <v>2.620124876528201</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.72112365604787</v>
+        <v>45.72112365604794</v>
       </c>
       <c r="G14">
-        <v>33.78472077438847</v>
+        <v>33.78472077438851</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.15970352010894</v>
+        <v>13.15970352010893</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.09334218813129</v>
+        <v>25.09334218813133</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.99823649739935</v>
+        <v>26.99823649739922</v>
       </c>
       <c r="C15">
         <v>18.57397423136367</v>
       </c>
       <c r="D15">
-        <v>2.622332341251081</v>
+        <v>2.622332341251012</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.46853578141932</v>
+        <v>45.46853578141945</v>
       </c>
       <c r="G15">
-        <v>33.60781596876893</v>
+        <v>33.60781596876904</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.94005285396329</v>
+        <v>24.94005285396318</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05479858190945</v>
+        <v>26.05479858190946</v>
       </c>
       <c r="C16">
-        <v>17.95368613984738</v>
+        <v>17.95368613984732</v>
       </c>
       <c r="D16">
-        <v>2.634698412015482</v>
+        <v>2.634698412015548</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.70579661741755</v>
+        <v>12.70579661741753</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.46593279573789</v>
+        <v>25.46593279573792</v>
       </c>
       <c r="C17">
-        <v>17.56698540201151</v>
+        <v>17.56698540201158</v>
       </c>
       <c r="D17">
-        <v>2.642046088115841</v>
+        <v>2.642046088115908</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.12743009476633</v>
+        <v>43.12743009476638</v>
       </c>
       <c r="G17">
-        <v>31.97384081665223</v>
+        <v>31.97384081665224</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.47026322079983</v>
+        <v>12.47026322079985</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.50058935633037</v>
+        <v>23.50058935633038</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.12341224099326</v>
+        <v>25.12341224099332</v>
       </c>
       <c r="C18">
-        <v>17.3422220257181</v>
+        <v>17.34222202571826</v>
       </c>
       <c r="D18">
-        <v>2.646190244214202</v>
+        <v>2.646190244214002</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.61371874507082</v>
+        <v>42.61371874507085</v>
       </c>
       <c r="G18">
-        <v>31.61675590990796</v>
+        <v>31.61675590990797</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.33525303333639</v>
+        <v>12.3352530333364</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.00677454085962</v>
+        <v>25.00677454085948</v>
       </c>
       <c r="C19">
-        <v>17.26571187405094</v>
+        <v>17.26571187405097</v>
       </c>
       <c r="D19">
-        <v>2.647579801943847</v>
+        <v>2.647579801944056</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.43961467419977</v>
+        <v>42.43961467419967</v>
       </c>
       <c r="G19">
-        <v>31.49586194843208</v>
+        <v>31.49586194843202</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.28961617925675</v>
+        <v>12.28961617925674</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.07064753721844</v>
+        <v>23.07064753721845</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.52901158138634</v>
+        <v>25.5290115813862</v>
       </c>
       <c r="C20">
-        <v>17.6083912746687</v>
+        <v>17.6083912746688</v>
       </c>
       <c r="D20">
-        <v>2.641272527594539</v>
+        <v>2.641272527594341</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.22242774847057</v>
+        <v>43.22242774847053</v>
       </c>
       <c r="G20">
-        <v>32.03993481611462</v>
+        <v>32.0399348161146</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.49528727526412</v>
+        <v>12.49528727526409</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.55970373911891</v>
+        <v>23.55970373911882</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,16 +1137,16 @@
         <v>27.23878616328268</v>
       </c>
       <c r="C21">
-        <v>18.7322760806795</v>
+        <v>18.73227608067933</v>
       </c>
       <c r="D21">
-        <v>2.619061093306906</v>
+        <v>2.619061093306979</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.84221450527091</v>
+        <v>45.84221450527093</v>
       </c>
       <c r="G21">
         <v>33.8695690058748</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.16669968430827</v>
+        <v>25.16669968430826</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.32464821516379</v>
+        <v>28.32464821516373</v>
       </c>
       <c r="C22">
-        <v>19.44760516804181</v>
+        <v>19.44760516804182</v>
       </c>
       <c r="D22">
-        <v>2.603688587925126</v>
+        <v>2.603688587925267</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.54894249596001</v>
+        <v>47.54894249595989</v>
       </c>
       <c r="G22">
-        <v>35.06811433319083</v>
+        <v>35.06811433319073</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.72709147540987</v>
+        <v>13.72709147540988</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.74786397147064</v>
+        <v>27.74786397147069</v>
       </c>
       <c r="C23">
-        <v>19.06748793449568</v>
+        <v>19.06748793449592</v>
       </c>
       <c r="D23">
-        <v>2.611978128730594</v>
+        <v>2.611978128730716</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.63835373488136</v>
+        <v>46.63835373488148</v>
       </c>
       <c r="G23">
-        <v>34.4280524152753</v>
+        <v>34.42805241527538</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.41207995342803</v>
+        <v>13.41207995342804</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.6469758920526</v>
+        <v>25.64697589205268</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.5005060656054</v>
+        <v>25.50050606560543</v>
       </c>
       <c r="C24">
         <v>17.58967930951702</v>
       </c>
       <c r="D24">
-        <v>2.6416225025472</v>
+        <v>2.641622502547337</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.17948297890235</v>
+        <v>43.17948297890231</v>
       </c>
       <c r="G24">
-        <v>32.01005396744095</v>
+        <v>32.01005396744091</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.4839726626499</v>
+        <v>12.48397266264989</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.92923613974095</v>
+        <v>22.92923613974096</v>
       </c>
       <c r="C25">
-        <v>15.90536454673241</v>
+        <v>15.90536454673236</v>
       </c>
       <c r="D25">
-        <v>2.67051549279453</v>
+        <v>2.670515492794398</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.4125172958387</v>
+        <v>39.41251729583868</v>
       </c>
       <c r="G25">
-        <v>29.40513324463709</v>
+        <v>29.40513324463706</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.13294542887609</v>
+        <v>21.13294542887608</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.89816821603256</v>
+        <v>20.89709941462537</v>
       </c>
       <c r="C2">
-        <v>14.58022526556236</v>
+        <v>14.57900273138679</v>
       </c>
       <c r="D2">
-        <v>2.689698005025591</v>
+        <v>2.690985965649633</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.60099970750726</v>
+        <v>36.56560446258632</v>
       </c>
       <c r="G2">
-        <v>27.48537986766453</v>
+        <v>26.46707843281856</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>27.52059539827329</v>
       </c>
       <c r="I2">
-        <v>10.79788359679949</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.79618006684389</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.25008420250974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>19.25088333949084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.43084153940022</v>
+        <v>19.43005024632289</v>
       </c>
       <c r="C3">
-        <v>13.62622381480169</v>
+        <v>13.62532290986843</v>
       </c>
       <c r="D3">
-        <v>2.701629740121924</v>
+        <v>2.702485781218757</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.67282771673752</v>
+        <v>34.63987683672416</v>
       </c>
       <c r="G3">
-        <v>26.18390925211999</v>
+        <v>24.93140647981923</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.21782843200852</v>
       </c>
       <c r="I3">
-        <v>10.32422939926447</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.32270818123953</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.89654122158075</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.89740527025626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.48365201682664</v>
+        <v>18.48302678643488</v>
       </c>
       <c r="C4">
-        <v>13.0120950507708</v>
+        <v>13.011394955993</v>
       </c>
       <c r="D4">
-        <v>2.708497309277972</v>
+        <v>2.709085970911422</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.47921843645778</v>
+        <v>33.44783398134091</v>
       </c>
       <c r="G4">
-        <v>25.38559702558524</v>
+        <v>23.97434954215088</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.41876828417569</v>
       </c>
       <c r="I4">
-        <v>10.03670409162436</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.03530585023783</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.02570179138712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>17.02659818721832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.08584050608082</v>
+        <v>18.08528215814255</v>
       </c>
       <c r="C5">
-        <v>12.75460581018601</v>
+        <v>12.7539887553727</v>
       </c>
       <c r="D5">
-        <v>2.71118988711764</v>
+        <v>2.711668926557691</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.99073858685838</v>
+        <v>32.96000921747105</v>
       </c>
       <c r="G5">
-        <v>25.06071118961888</v>
+        <v>23.58103336973035</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>25.09359040576787</v>
       </c>
       <c r="I5">
-        <v>9.920409303219781</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.919063996220746</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.66062642434482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>16.66153434144645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.01906458692456</v>
+        <v>18.01851730535214</v>
       </c>
       <c r="C6">
-        <v>12.71141107103025</v>
+        <v>12.71080788880658</v>
       </c>
       <c r="D6">
-        <v>2.711630843692312</v>
+        <v>2.712091637323919</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.90951453538437</v>
+        <v>32.87889495809231</v>
       </c>
       <c r="G6">
-        <v>25.00679833029088</v>
+        <v>23.51553302336103</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>25.03962984172006</v>
       </c>
       <c r="I6">
-        <v>9.901153128656428</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.899816782338466</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.59938420112072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>16.60029393725273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.47833511653148</v>
+        <v>18.47771079095955</v>
       </c>
       <c r="C7">
-        <v>13.0086518317926</v>
+        <v>13.00795285153769</v>
       </c>
       <c r="D7">
-        <v>2.70853403977352</v>
+        <v>2.709121225829243</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.47263845688432</v>
+        <v>33.44126276844528</v>
       </c>
       <c r="G7">
-        <v>25.38121339408362</v>
+        <v>23.96905813074139</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.41438066162881</v>
       </c>
       <c r="I7">
-        <v>10.03513208637238</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.03373454742434</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.02081981800872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>17.02171637565898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40171028482022</v>
+        <v>20.40073825539029</v>
       </c>
       <c r="C8">
-        <v>14.25711117586866</v>
+        <v>14.25599907267086</v>
       </c>
       <c r="D8">
-        <v>2.693913064288291</v>
+        <v>2.695052477435796</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.93836232883385</v>
+        <v>35.90379651510758</v>
       </c>
       <c r="G8">
-        <v>27.03658601367554</v>
+        <v>25.9406332666204</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.07134498699282</v>
       </c>
       <c r="I8">
-        <v>10.63390200726433</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.63225908625507</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.79150595685377</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>18.79232917889708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.8160881566842</v>
+        <v>23.81438474135365</v>
       </c>
       <c r="C9">
-        <v>16.48548972207395</v>
+        <v>16.48357683946358</v>
       </c>
       <c r="D9">
-        <v>2.661141988213737</v>
+        <v>2.663353091892647</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.68712705038897</v>
+        <v>40.64680292730168</v>
       </c>
       <c r="G9">
-        <v>30.28276457548132</v>
+        <v>29.68913984098377</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30.32099775172043</v>
       </c>
       <c r="I9">
-        <v>11.83373989979842</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.83169941381778</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.95860366507344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21.95921165658851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.12148236569108</v>
+        <v>26.11918670286945</v>
       </c>
       <c r="C10">
-        <v>17.99749910852172</v>
+        <v>17.99497819886621</v>
       </c>
       <c r="D10">
-        <v>2.633848477349752</v>
+        <v>2.636850118125598</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.12055041566366</v>
+        <v>44.07625216440058</v>
       </c>
       <c r="G10">
-        <v>32.66569900336489</v>
+        <v>32.37204004176924</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>32.70666445404546</v>
       </c>
       <c r="I10">
-        <v>12.73273869488544</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.7304488248671</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.11552887610477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>24.11591543331748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.12987628668306</v>
+        <v>27.12729243021446</v>
       </c>
       <c r="C11">
-        <v>18.66059689497968</v>
+        <v>18.65778862881349</v>
       </c>
       <c r="D11">
-        <v>2.620548154016098</v>
+        <v>2.623912866822707</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.67282822015415</v>
+        <v>45.62676291684477</v>
       </c>
       <c r="G11">
-        <v>33.75088739936741</v>
+        <v>33.5795510222368</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>33.79312832289251</v>
       </c>
       <c r="I11">
-        <v>13.14675093340951</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>13.14435417432126</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.06406125294317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>25.064327658093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.50628222367649</v>
+        <v>27.5035858244536</v>
       </c>
       <c r="C12">
-        <v>18.90838067258734</v>
+        <v>18.90546140104015</v>
       </c>
       <c r="D12">
-        <v>2.615366504086796</v>
+        <v>2.618869476904215</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.2596536439049</v>
+        <v>46.21292347375654</v>
       </c>
       <c r="G12">
-        <v>34.16226338975212</v>
+        <v>34.03529606935042</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>34.20499149603115</v>
       </c>
       <c r="I12">
-        <v>13.30442147624665</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.30198488091255</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.4189559077351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>25.41917341572879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.42545282646255</v>
+        <v>27.42278082985047</v>
       </c>
       <c r="C13">
-        <v>18.85515932394447</v>
+        <v>18.85226406821237</v>
       </c>
       <c r="D13">
-        <v>2.616489231826444</v>
+        <v>2.619962388606869</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.13330617460748</v>
+        <v>46.0867190341981</v>
       </c>
       <c r="G13">
-        <v>34.0736410833796</v>
+        <v>33.93720357930655</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>34.11626408732944</v>
       </c>
       <c r="I13">
-        <v>13.27042129500747</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.26799325627052</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.34270691466424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>25.34293511578683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.1609505036546</v>
+        <v>27.15835746114539</v>
       </c>
       <c r="C14">
-        <v>18.68104719274543</v>
+        <v>18.67822984206102</v>
       </c>
       <c r="D14">
-        <v>2.620124876528201</v>
+        <v>2.623500946834846</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.72112365604794</v>
+        <v>45.67500357834571</v>
       </c>
       <c r="G14">
-        <v>33.78472077438851</v>
+        <v>33.61707330932312</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>33.82700169747545</v>
       </c>
       <c r="I14">
-        <v>13.15970352010893</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13.15730347283584</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.09334218813133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>25.09360464254187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.99823649739922</v>
+        <v>26.9956913489759</v>
       </c>
       <c r="C15">
-        <v>18.57397423136367</v>
+        <v>18.57120429366305</v>
       </c>
       <c r="D15">
-        <v>2.622332341251012</v>
+        <v>2.625649052898582</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.46853578141945</v>
+        <v>45.42270229716905</v>
       </c>
       <c r="G15">
-        <v>33.60781596876904</v>
+        <v>33.42079976977852</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>33.6498878889829</v>
       </c>
       <c r="I15">
-        <v>13.09200794032811</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>13.08962511177817</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.94005285396318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>24.94033582668331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05479858190946</v>
+        <v>26.05252131780629</v>
       </c>
       <c r="C16">
-        <v>17.95368613984732</v>
+        <v>17.95118374058356</v>
       </c>
       <c r="D16">
-        <v>2.634698412015548</v>
+        <v>2.637676417195867</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.01894189167513</v>
+        <v>43.97475981407335</v>
       </c>
       <c r="G16">
-        <v>32.59482335597792</v>
+        <v>32.29289271170911</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>32.63570606358419</v>
       </c>
       <c r="I16">
-        <v>12.70579661741753</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.7035138405623</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.05291592999638</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>24.05330989983917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.46593279573792</v>
+        <v>25.46381459757158</v>
       </c>
       <c r="C17">
-        <v>17.56698540201158</v>
+        <v>17.56464394808338</v>
       </c>
       <c r="D17">
-        <v>2.642046088115908</v>
+        <v>2.644817374244322</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.12743009476638</v>
+        <v>43.08427052250182</v>
       </c>
       <c r="G17">
-        <v>31.97384081665224</v>
+        <v>31.59784984359971</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>32.0140019550673</v>
       </c>
       <c r="I17">
-        <v>12.47026322079985</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.4680433085273</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.50058935633038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>23.50104605426363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.12341224099332</v>
+        <v>25.12138381565578</v>
       </c>
       <c r="C18">
-        <v>17.34222202571826</v>
+        <v>17.3399721742264</v>
       </c>
       <c r="D18">
-        <v>2.646190244214002</v>
+        <v>2.648842936942179</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.61371874507085</v>
+        <v>42.57115124425993</v>
       </c>
       <c r="G18">
-        <v>31.61675590990797</v>
+        <v>31.19683191839576</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>31.65650511079012</v>
       </c>
       <c r="I18">
-        <v>12.3352530333364</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.33306991819491</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.17980402314124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>23.18029501570922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.00677454085948</v>
+        <v>25.00477623548654</v>
       </c>
       <c r="C19">
-        <v>17.26571187405097</v>
+        <v>17.26349288900487</v>
       </c>
       <c r="D19">
-        <v>2.647579801944056</v>
+        <v>2.650192385863444</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.43961467419967</v>
+        <v>42.3972483607242</v>
       </c>
       <c r="G19">
-        <v>31.49586194843202</v>
+        <v>31.06083124023958</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>31.53547222072679</v>
       </c>
       <c r="I19">
-        <v>12.28961617925674</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.28744564083039</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.07064753721845</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>23.07114985117619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.5290115813862</v>
+        <v>25.52687663285953</v>
       </c>
       <c r="C20">
-        <v>17.6083912746688</v>
+        <v>17.60603279244168</v>
       </c>
       <c r="D20">
-        <v>2.641272527594341</v>
+        <v>2.644065785804615</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.22242774847053</v>
+        <v>43.17915893006229</v>
       </c>
       <c r="G20">
-        <v>32.0399348161146</v>
+        <v>31.67196533794457</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>32.08017245067798</v>
       </c>
       <c r="I20">
-        <v>12.49528727526409</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.49306060677012</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.55970373911882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>23.56015394824184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.23878616328268</v>
+        <v>27.23617002895763</v>
       </c>
       <c r="C21">
-        <v>18.73227608067933</v>
+        <v>18.7294359124946</v>
       </c>
       <c r="D21">
-        <v>2.619061093306979</v>
+        <v>2.622465656859933</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.84221450527093</v>
+        <v>45.7959571382167</v>
       </c>
       <c r="G21">
-        <v>33.8695690058748</v>
+        <v>33.71114097471889</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>33.91195029646309</v>
       </c>
       <c r="I21">
-        <v>13.19219815478103</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.18978987114205</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.16669968430826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>25.1669521754272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.32464821516373</v>
+        <v>28.32169728150102</v>
       </c>
       <c r="C22">
-        <v>19.44760516804182</v>
+        <v>19.44443704198095</v>
       </c>
       <c r="D22">
-        <v>2.603688587925267</v>
+        <v>2.607497342214527</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.54894249595989</v>
+        <v>47.50075587197132</v>
       </c>
       <c r="G22">
-        <v>35.06811433319073</v>
+        <v>35.03529655865436</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>35.11192083416324</v>
       </c>
       <c r="I22">
-        <v>13.72709147540988</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.72531371526728</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.19216785902967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>26.19227093591798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.74786397147069</v>
+        <v>27.74509385928785</v>
       </c>
       <c r="C23">
-        <v>19.06748793449592</v>
+        <v>19.06449629171599</v>
       </c>
       <c r="D23">
-        <v>2.611978128730716</v>
+        <v>2.615570627544541</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.63835373488148</v>
+        <v>46.59119522037916</v>
       </c>
       <c r="G23">
-        <v>34.42805241527538</v>
+        <v>34.32920391699404</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>34.47109619437702</v>
       </c>
       <c r="I23">
-        <v>13.41207995342804</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.4103404676455</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.64697589205268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>25.64716079946296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.50050606560543</v>
+        <v>25.49837869508617</v>
       </c>
       <c r="C24">
-        <v>17.58967930951702</v>
+        <v>17.58732852862484</v>
       </c>
       <c r="D24">
-        <v>2.641622502547337</v>
+        <v>2.644405826414545</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.17948297890231</v>
+        <v>43.13626353741377</v>
       </c>
       <c r="G24">
-        <v>32.01005396744091</v>
+        <v>31.6384621971933</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>32.05025700903109</v>
       </c>
       <c r="I24">
-        <v>12.48397266264989</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.48174904658008</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>23.53298826503395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>23.53344141321321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.92923613974096</v>
+        <v>22.92773820647736</v>
       </c>
       <c r="C25">
-        <v>15.90536454673236</v>
+        <v>15.90366977738123</v>
       </c>
       <c r="D25">
-        <v>2.670515492794398</v>
+        <v>2.672436938329009</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.41251729583868</v>
+        <v>39.3737017133711</v>
       </c>
       <c r="G25">
-        <v>29.40513324463706</v>
+        <v>28.68800911006079</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>29.44239259539649</v>
       </c>
       <c r="I25">
-        <v>11.50635156922277</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.50441038286649</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.13294542887608</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>21.13362112102238</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.89709941462537</v>
+        <v>24.09705727219868</v>
       </c>
       <c r="C2">
-        <v>14.57900273138679</v>
+        <v>12.80295687675085</v>
       </c>
       <c r="D2">
-        <v>2.690985965649633</v>
+        <v>2.679367243636999</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.56560446258632</v>
+        <v>40.86092957177492</v>
       </c>
       <c r="G2">
-        <v>26.46707843281856</v>
+        <v>2.120774391459966</v>
       </c>
       <c r="H2">
-        <v>27.52059539827329</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.79618006684389</v>
+        <v>6.234970762723689</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.453585757850359</v>
       </c>
       <c r="M2">
-        <v>19.25088333949084</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>30.92260295420621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.43005024632289</v>
+        <v>22.61954641815002</v>
       </c>
       <c r="C3">
-        <v>13.62532290986843</v>
+        <v>11.96601489929532</v>
       </c>
       <c r="D3">
-        <v>2.702485781218757</v>
+        <v>2.634940653781154</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.63987683672416</v>
+        <v>39.67751497637914</v>
       </c>
       <c r="G3">
-        <v>24.93140647981923</v>
+        <v>2.13201861388949</v>
       </c>
       <c r="H3">
-        <v>26.21782843200852</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.32270818123953</v>
+        <v>6.289210865410842</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.290339921570902</v>
       </c>
       <c r="M3">
-        <v>17.89740527025626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>30.09562349892924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.48302678643488</v>
+        <v>21.68034241985945</v>
       </c>
       <c r="C4">
-        <v>13.011394955993</v>
+        <v>11.42658341048835</v>
       </c>
       <c r="D4">
-        <v>2.709085970911422</v>
+        <v>2.608216987258921</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.44783398134091</v>
+        <v>38.97499609002563</v>
       </c>
       <c r="G4">
-        <v>23.97434954215088</v>
+        <v>2.139076592632883</v>
       </c>
       <c r="H4">
-        <v>25.41876828417569</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.03530585023783</v>
+        <v>6.323981030129911</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.192800771674815</v>
       </c>
       <c r="M4">
-        <v>17.02659818721832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>29.60825492964609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.08528215814255</v>
+        <v>21.28978984928484</v>
       </c>
       <c r="C5">
-        <v>12.7539887553727</v>
+        <v>11.20027059610914</v>
       </c>
       <c r="D5">
-        <v>2.711668926557691</v>
+        <v>2.59744288608128</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.96000921747105</v>
+        <v>38.69481642915883</v>
       </c>
       <c r="G5">
-        <v>23.58103336973035</v>
+        <v>2.141994266101343</v>
       </c>
       <c r="H5">
-        <v>25.09359040576787</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.919063996220746</v>
+        <v>6.33851968690375</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.153752355724456</v>
       </c>
       <c r="M5">
-        <v>16.66153434144645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>29.41475227747789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.01851730535214</v>
+        <v>21.22447503220123</v>
       </c>
       <c r="C6">
-        <v>12.71080788880658</v>
+        <v>11.16229788488622</v>
       </c>
       <c r="D6">
-        <v>2.712091637323919</v>
+        <v>2.595660217265081</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.87889495809231</v>
+        <v>38.64866270091804</v>
       </c>
       <c r="G6">
-        <v>23.51553302336103</v>
+        <v>2.142481326371101</v>
       </c>
       <c r="H6">
-        <v>25.03962984172006</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.899816782338466</v>
+        <v>6.340956163581302</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.147311311851537</v>
       </c>
       <c r="M6">
-        <v>16.60029393725273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>29.38292881413581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.47771079095955</v>
+        <v>21.67510658501604</v>
       </c>
       <c r="C7">
-        <v>13.00795285153769</v>
+        <v>11.42355763212914</v>
       </c>
       <c r="D7">
-        <v>2.709121225829243</v>
+        <v>2.608071243639642</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.44126276844528</v>
+        <v>38.97119272085606</v>
       </c>
       <c r="G7">
-        <v>23.96905813074139</v>
+        <v>2.139115769899735</v>
       </c>
       <c r="H7">
-        <v>25.41438066162881</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.03373454742434</v>
+        <v>6.324175606191901</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.19227128860525</v>
       </c>
       <c r="M7">
-        <v>17.02171637565898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>29.60562465324223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40073825539029</v>
+        <v>23.59436536279726</v>
       </c>
       <c r="C8">
-        <v>14.25599907267086</v>
+        <v>12.51963668251523</v>
       </c>
       <c r="D8">
-        <v>2.695052477435796</v>
+        <v>2.663919092373586</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.90379651510758</v>
+        <v>40.44790737752976</v>
       </c>
       <c r="G8">
-        <v>25.9406332666204</v>
+        <v>2.124621179231443</v>
       </c>
       <c r="H8">
-        <v>27.07134498699282</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.63225908625507</v>
+        <v>6.253368793554779</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.396752106053619</v>
       </c>
       <c r="M8">
-        <v>18.79232917889708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>30.63320971059716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.81438474135365</v>
+        <v>27.0983064133563</v>
       </c>
       <c r="C9">
-        <v>16.48357683946358</v>
+        <v>14.47013578321841</v>
       </c>
       <c r="D9">
-        <v>2.663353091892647</v>
+        <v>2.779020131183113</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.64680292730168</v>
+        <v>43.53421097839013</v>
       </c>
       <c r="G9">
-        <v>29.68913984098377</v>
+        <v>2.097281151080477</v>
       </c>
       <c r="H9">
-        <v>30.32099775172043</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.83169941381778</v>
+        <v>6.126125367991298</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.818274266256554</v>
       </c>
       <c r="M9">
-        <v>21.95921165658851</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.8118677146543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.11918670286945</v>
+        <v>29.64464606663469</v>
       </c>
       <c r="C10">
-        <v>17.99497819886621</v>
+        <v>15.78830670167515</v>
       </c>
       <c r="D10">
-        <v>2.636850118125598</v>
+        <v>2.868867300531674</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.07625216440058</v>
+        <v>45.91964700030346</v>
       </c>
       <c r="G10">
-        <v>32.37204004176924</v>
+        <v>2.077640290935252</v>
       </c>
       <c r="H10">
-        <v>32.70666445404546</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.7304488248671</v>
+        <v>6.039692780701662</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.139657136115691</v>
       </c>
       <c r="M10">
-        <v>24.11591543331748</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>34.51631045352872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.12729243021446</v>
+        <v>30.78149189120343</v>
       </c>
       <c r="C11">
-        <v>18.65778862881349</v>
+        <v>16.36477604291727</v>
       </c>
       <c r="D11">
-        <v>2.623912866822707</v>
+        <v>2.911382846440163</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.62676291684477</v>
+        <v>47.03193996645685</v>
       </c>
       <c r="G11">
-        <v>33.5795510222368</v>
+        <v>2.068746787874689</v>
       </c>
       <c r="H11">
-        <v>33.79312832289251</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>13.14435417432126</v>
+        <v>6.001905517088153</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.288338753629649</v>
       </c>
       <c r="M11">
-        <v>25.064327658093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>35.3158312778035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.5035858244536</v>
+        <v>31.20592791418423</v>
       </c>
       <c r="C12">
-        <v>18.90546140104015</v>
+        <v>16.57990774787303</v>
       </c>
       <c r="D12">
-        <v>2.618869476904215</v>
+        <v>2.927767312114399</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.21292347375654</v>
+        <v>47.45725783049912</v>
       </c>
       <c r="G12">
-        <v>34.03529606935042</v>
+        <v>2.065379679748924</v>
       </c>
       <c r="H12">
-        <v>34.20499149603115</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.30198488091255</v>
+        <v>5.987817561204722</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.34500188946879</v>
       </c>
       <c r="M12">
-        <v>25.41917341572879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.62225992930968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.42278082985047</v>
+        <v>31.11478278585943</v>
       </c>
       <c r="C13">
-        <v>18.85226406821237</v>
+        <v>16.53371310840116</v>
       </c>
       <c r="D13">
-        <v>2.619962388606869</v>
+        <v>2.924225110935713</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.0867190341981</v>
+        <v>47.36547053073396</v>
       </c>
       <c r="G13">
-        <v>33.93720357930655</v>
+        <v>2.066104908336766</v>
       </c>
       <c r="H13">
-        <v>34.11626408732944</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.26799325627052</v>
+        <v>5.990841790967696</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.332782273143199</v>
       </c>
       <c r="M13">
-        <v>25.34293511578683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.55609813375229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.15835746114539</v>
+        <v>30.81653026481056</v>
       </c>
       <c r="C14">
-        <v>18.67822984206102</v>
+        <v>16.38253743712799</v>
       </c>
       <c r="D14">
-        <v>2.623500946834846</v>
+        <v>2.912724796319535</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.67500357834571</v>
+        <v>47.0668470656714</v>
       </c>
       <c r="G14">
-        <v>33.61707330932312</v>
+        <v>2.068469793104384</v>
       </c>
       <c r="H14">
-        <v>33.82700169747545</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13.15730347283584</v>
+        <v>6.000742049995873</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.292993182666775</v>
       </c>
       <c r="M14">
-        <v>25.09360464254187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>35.34096650280517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.9956913489759</v>
+        <v>30.63306137604359</v>
       </c>
       <c r="C15">
-        <v>18.57120429366305</v>
+        <v>16.28953121870127</v>
       </c>
       <c r="D15">
-        <v>2.625649052898582</v>
+        <v>2.905719164199581</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.42270229716905</v>
+        <v>46.88447558930224</v>
       </c>
       <c r="G15">
-        <v>33.42079976977852</v>
+        <v>2.069918272313916</v>
       </c>
       <c r="H15">
-        <v>33.6498878889829</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.08962511177817</v>
+        <v>6.006835100224866</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.268668444916951</v>
       </c>
       <c r="M15">
-        <v>24.94033582668331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>35.20967663701249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05252131780629</v>
+        <v>29.5694861361787</v>
       </c>
       <c r="C16">
-        <v>17.95118374058356</v>
+        <v>15.75018055337311</v>
       </c>
       <c r="D16">
-        <v>2.637676417195867</v>
+        <v>2.866125860756161</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.97475981407335</v>
+        <v>45.84751844218532</v>
       </c>
       <c r="G16">
-        <v>32.29289271170911</v>
+        <v>2.078221897767898</v>
       </c>
       <c r="H16">
-        <v>32.63570606358419</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.7035138405623</v>
+        <v>6.042193159454809</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.129990507795608</v>
       </c>
       <c r="M16">
-        <v>24.05330989983917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>34.46456112080526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.46381459757158</v>
+        <v>28.90591132206096</v>
       </c>
       <c r="C17">
-        <v>17.56464394808338</v>
+        <v>15.41348302616206</v>
       </c>
       <c r="D17">
-        <v>2.644817374244322</v>
+        <v>2.842289886830772</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.08427052250182</v>
+        <v>45.21845523262471</v>
       </c>
       <c r="G17">
-        <v>31.59784984359971</v>
+        <v>2.083322930533622</v>
       </c>
       <c r="H17">
-        <v>32.0140019550673</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.4680433085273</v>
+        <v>6.064276978715279</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.045551794230962</v>
       </c>
       <c r="M17">
-        <v>23.50104605426363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>34.01376280181788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.12138381565578</v>
+        <v>28.52007440640722</v>
       </c>
       <c r="C18">
-        <v>17.3399721742264</v>
+        <v>15.21763096685594</v>
       </c>
       <c r="D18">
-        <v>2.648842936942179</v>
+        <v>2.828731487028239</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.57115124425993</v>
+        <v>44.8591720882756</v>
       </c>
       <c r="G18">
-        <v>31.19683191839576</v>
+        <v>2.086261142271702</v>
       </c>
       <c r="H18">
-        <v>31.65650511079012</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.33306991819491</v>
+        <v>6.077123052385231</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.997217868189686</v>
       </c>
       <c r="M18">
-        <v>23.18029501570922</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>33.75673467122643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.00477623548654</v>
+        <v>28.38871359396754</v>
       </c>
       <c r="C19">
-        <v>17.26349288900487</v>
+        <v>15.15093752946817</v>
       </c>
       <c r="D19">
-        <v>2.650192385863444</v>
+        <v>2.824165490866228</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.3972483607242</v>
+        <v>44.73795574969194</v>
       </c>
       <c r="G19">
-        <v>31.06083124023958</v>
+        <v>2.0872568464947</v>
       </c>
       <c r="H19">
-        <v>31.53547222072679</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.28744564083039</v>
+        <v>6.081497228860273</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.980892882878765</v>
       </c>
       <c r="M19">
-        <v>23.07114985117619</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>33.67009251800451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.52687663285953</v>
+        <v>28.97697936478874</v>
       </c>
       <c r="C20">
-        <v>17.60603279244168</v>
+        <v>15.44955083463815</v>
       </c>
       <c r="D20">
-        <v>2.644065785804615</v>
+        <v>2.844811267159148</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.17915893006229</v>
+        <v>45.28515622188767</v>
       </c>
       <c r="G20">
-        <v>31.67196533794457</v>
+        <v>2.082779514747035</v>
       </c>
       <c r="H20">
-        <v>32.08017245067798</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.49306060677012</v>
+        <v>6.061911204491864</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.054516328700089</v>
       </c>
       <c r="M20">
-        <v>23.56015394824184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>34.06151604617506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.23617002895763</v>
+        <v>30.90429637966832</v>
       </c>
       <c r="C21">
-        <v>18.7294359124946</v>
+        <v>16.42702582980115</v>
       </c>
       <c r="D21">
-        <v>2.622465656859933</v>
+        <v>2.916094567581591</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.7959571382167</v>
+        <v>47.1544461286956</v>
       </c>
       <c r="G21">
-        <v>33.71114097471889</v>
+        <v>2.067775196400492</v>
       </c>
       <c r="H21">
-        <v>33.91195029646309</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.18978987114205</v>
+        <v>5.997828087721412</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.304670340847547</v>
       </c>
       <c r="M21">
-        <v>25.1669521754272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.40405447424003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.32169728150102</v>
+        <v>32.12873424165002</v>
       </c>
       <c r="C22">
-        <v>19.44443704198095</v>
+        <v>17.0475117423211</v>
       </c>
       <c r="D22">
-        <v>2.607497342214527</v>
+        <v>2.964370033295134</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.50075587197132</v>
+        <v>48.40029956515096</v>
       </c>
       <c r="G22">
-        <v>35.03529655865436</v>
+        <v>2.05796993049377</v>
       </c>
       <c r="H22">
-        <v>35.11192083416324</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.72531371526728</v>
+        <v>5.957236670031954</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.470271136504323</v>
       </c>
       <c r="M22">
-        <v>26.19227093591798</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.30299789855924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.74509385928785</v>
+        <v>31.47834378851082</v>
       </c>
       <c r="C23">
-        <v>19.06449629171599</v>
+        <v>16.71796392310383</v>
       </c>
       <c r="D23">
-        <v>2.615570627544541</v>
+        <v>2.938432127266926</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.59119522037916</v>
+        <v>47.73305749653257</v>
       </c>
       <c r="G23">
-        <v>34.32920391699404</v>
+        <v>2.063205028911307</v>
       </c>
       <c r="H23">
-        <v>34.47109619437702</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.4103404676455</v>
+        <v>5.978782479050368</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.38169006695634</v>
       </c>
       <c r="M23">
-        <v>25.64716079946296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.82116425902198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.49837869508617</v>
+        <v>28.94486303739394</v>
       </c>
       <c r="C24">
-        <v>17.58732852862484</v>
+        <v>15.43325169296389</v>
       </c>
       <c r="D24">
-        <v>2.644405826414545</v>
+        <v>2.843670902340763</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.13626353741377</v>
+        <v>45.25499332600337</v>
       </c>
       <c r="G24">
-        <v>31.6384621971933</v>
+        <v>2.083025175318225</v>
       </c>
       <c r="H24">
-        <v>32.05025700903109</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.48174904658008</v>
+        <v>6.06298030452397</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.050462805540226</v>
       </c>
       <c r="M24">
-        <v>23.53344141321321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>34.0399201467682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.92773820647736</v>
+        <v>26.17869495568558</v>
       </c>
       <c r="C25">
-        <v>15.90366977738123</v>
+        <v>13.96316991701608</v>
       </c>
       <c r="D25">
-        <v>2.672436938329009</v>
+        <v>2.747104933668145</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.3737017133711</v>
+        <v>42.67886320472995</v>
       </c>
       <c r="G25">
-        <v>28.68800911006079</v>
+        <v>2.104582073850766</v>
       </c>
       <c r="H25">
-        <v>29.44239259539649</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.50441038286649</v>
+        <v>6.159308823418102</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.702145168488491</v>
       </c>
       <c r="M25">
-        <v>21.13362112102238</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>32.20465033599651</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.09705727219868</v>
+        <v>14.4404513342629</v>
       </c>
       <c r="C2">
-        <v>12.80295687675085</v>
+        <v>8.006350483774103</v>
       </c>
       <c r="D2">
-        <v>2.679367243636999</v>
+        <v>8.407456412391252</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.86092957177492</v>
+        <v>28.84144501198619</v>
       </c>
       <c r="G2">
-        <v>2.120774391459966</v>
+        <v>34.00240340643405</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.37628590963661</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.234970762723689</v>
+        <v>8.30115078182579</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.63209964172522</v>
       </c>
       <c r="L2">
-        <v>7.453585757850359</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.10584014982489</v>
       </c>
       <c r="O2">
-        <v>30.92260295420621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.61954641815002</v>
+        <v>13.43824944412343</v>
       </c>
       <c r="C3">
-        <v>11.96601489929532</v>
+        <v>7.486668546779837</v>
       </c>
       <c r="D3">
-        <v>2.634940653781154</v>
+        <v>7.948753637822225</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.67751497637914</v>
+        <v>28.13056373140379</v>
       </c>
       <c r="G3">
-        <v>2.13201861388949</v>
+        <v>33.15668521496507</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.34474374843556</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.289210865410842</v>
+        <v>8.030180108453678</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.78917718038569</v>
       </c>
       <c r="L3">
-        <v>7.290339921570902</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.33461137744982</v>
       </c>
       <c r="O3">
-        <v>30.09562349892924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.68034241985945</v>
+        <v>12.78830342000667</v>
       </c>
       <c r="C4">
-        <v>11.42658341048835</v>
+        <v>7.150350876073413</v>
       </c>
       <c r="D4">
-        <v>2.608216987258921</v>
+        <v>7.65768565025248</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>38.97499609002563</v>
+        <v>27.71118067559489</v>
       </c>
       <c r="G4">
-        <v>2.139076592632883</v>
+        <v>32.66282955207666</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.33350445429254</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.323981030129911</v>
+        <v>7.865065408023336</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.2429035199701</v>
       </c>
       <c r="L4">
-        <v>7.192800771674815</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.47817409352191</v>
       </c>
       <c r="O4">
-        <v>29.60825492964609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.28978984928484</v>
+        <v>12.51467920618081</v>
       </c>
       <c r="C5">
-        <v>11.20027059610914</v>
+        <v>7.008947544732693</v>
       </c>
       <c r="D5">
-        <v>2.59744288608128</v>
+        <v>7.536828452205671</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>38.69481642915883</v>
+        <v>27.54466882738081</v>
       </c>
       <c r="G5">
-        <v>2.141994266101343</v>
+        <v>32.46802634934451</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.33089212582084</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.33851968690375</v>
+        <v>7.798176617564269</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.01302448588907</v>
       </c>
       <c r="L5">
-        <v>7.153752355724456</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.53747901614881</v>
       </c>
       <c r="O5">
-        <v>29.41475227747789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.22447503220123</v>
+        <v>12.46871274263043</v>
       </c>
       <c r="C6">
-        <v>11.16229788488622</v>
+        <v>6.985204414779942</v>
       </c>
       <c r="D6">
-        <v>2.595660217265081</v>
+        <v>7.516628799938045</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>38.64866270091804</v>
+        <v>27.51728726001451</v>
       </c>
       <c r="G6">
-        <v>2.142481326371101</v>
+        <v>32.43607004376324</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.33057497746234</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.340956163581302</v>
+        <v>7.787096164331954</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.97441299063572</v>
       </c>
       <c r="L6">
-        <v>7.147311311851537</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.54737566014609</v>
       </c>
       <c r="O6">
-        <v>29.38292881413581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.67510658501604</v>
+        <v>12.78464880911798</v>
       </c>
       <c r="C7">
-        <v>11.42355763212914</v>
+        <v>7.148461498837133</v>
       </c>
       <c r="D7">
-        <v>2.608071243639642</v>
+        <v>7.656064632105072</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>38.97119272085606</v>
+        <v>27.70891715077759</v>
       </c>
       <c r="G7">
-        <v>2.139115769899735</v>
+        <v>32.66017620516566</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.33346135646566</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.324175606191901</v>
+        <v>7.864161607278637</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.23983277812697</v>
       </c>
       <c r="L7">
-        <v>7.19227128860525</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.47897062292265</v>
       </c>
       <c r="O7">
-        <v>29.60562465324223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.59436536279726</v>
+        <v>14.10202935015972</v>
       </c>
       <c r="C8">
-        <v>12.51963668251523</v>
+        <v>7.8307275194534</v>
       </c>
       <c r="D8">
-        <v>2.663919092373586</v>
+        <v>8.251318293100462</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.44790737752976</v>
+        <v>28.59284003062674</v>
       </c>
       <c r="G8">
-        <v>2.124621179231443</v>
+        <v>33.70556227022546</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.36367753541956</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.253368793554779</v>
+        <v>8.207503970188219</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.34738991378209</v>
       </c>
       <c r="L8">
-        <v>7.396752106053619</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.18409214202798</v>
       </c>
       <c r="O8">
-        <v>30.63320971059716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.0983064133563</v>
+        <v>16.41418423384276</v>
       </c>
       <c r="C9">
-        <v>14.47013578321841</v>
+        <v>9.033063428001272</v>
       </c>
       <c r="D9">
-        <v>2.779020131183113</v>
+        <v>9.339626265167285</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.53421097839013</v>
+        <v>30.45777298426918</v>
       </c>
       <c r="G9">
-        <v>2.097281151080477</v>
+        <v>35.95425009055313</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.49082409217607</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.126125367991298</v>
+        <v>8.88766120750951</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.29385167770049</v>
       </c>
       <c r="L9">
-        <v>7.818274266256554</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.62930802105036</v>
       </c>
       <c r="O9">
-        <v>32.8118677146543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.64464606663469</v>
+        <v>17.95230710426369</v>
       </c>
       <c r="C10">
-        <v>15.78830670167515</v>
+        <v>9.835719248042485</v>
       </c>
       <c r="D10">
-        <v>2.868867300531674</v>
+        <v>10.08696737754155</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>45.91964700030346</v>
+        <v>31.90290534171866</v>
       </c>
       <c r="G10">
-        <v>2.077640290935252</v>
+        <v>37.72338989313729</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.63029833509631</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.039692780701662</v>
+        <v>9.387932385563019</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.59013903529371</v>
       </c>
       <c r="L10">
-        <v>8.139657136115691</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.23444332691418</v>
       </c>
       <c r="O10">
-        <v>34.51631045352872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.78149189120343</v>
+        <v>18.61826351400338</v>
       </c>
       <c r="C11">
-        <v>16.36477604291727</v>
+        <v>10.18386616543721</v>
       </c>
       <c r="D11">
-        <v>2.911382846440163</v>
+        <v>10.41512831822915</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.03193996645685</v>
+        <v>32.57569628806863</v>
       </c>
       <c r="G11">
-        <v>2.068746787874689</v>
+        <v>38.55289462998329</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.70475649998405</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.001905517088153</v>
+        <v>9.61506501992679</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.1516938264325</v>
       </c>
       <c r="L11">
-        <v>8.288338753629649</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.05722237363201</v>
       </c>
       <c r="O11">
-        <v>35.3158312778035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.20592791418423</v>
+        <v>18.86568721535395</v>
       </c>
       <c r="C12">
-        <v>16.57990774787303</v>
+        <v>10.31330633125915</v>
       </c>
       <c r="D12">
-        <v>2.927767312114399</v>
+        <v>10.53767674951295</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>47.45725783049912</v>
+        <v>32.83262196846196</v>
       </c>
       <c r="G12">
-        <v>2.065379679748924</v>
+        <v>38.87051851457706</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.73461831329006</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.987817561204722</v>
+        <v>9.700976206777197</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.36037334682394</v>
       </c>
       <c r="L12">
-        <v>8.34500188946879</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.99043025360237</v>
       </c>
       <c r="O12">
-        <v>35.62225992930968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.11478278585943</v>
+        <v>18.8126102385915</v>
       </c>
       <c r="C13">
-        <v>16.53371310840116</v>
+        <v>10.28553481655444</v>
       </c>
       <c r="D13">
-        <v>2.924225110935713</v>
+        <v>10.51136039067211</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>47.36547053073396</v>
+        <v>32.77719330754876</v>
       </c>
       <c r="G13">
-        <v>2.066104908336766</v>
+        <v>38.80195693255767</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.72811160665303</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.990841790967696</v>
+        <v>9.682478541058654</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.31560572729333</v>
       </c>
       <c r="L13">
-        <v>8.332782273143199</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.00480145909829</v>
       </c>
       <c r="O13">
-        <v>35.55609813375229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.81653026481056</v>
+        <v>18.63871404775091</v>
       </c>
       <c r="C14">
-        <v>16.38253743712799</v>
+        <v>10.19456300906251</v>
       </c>
       <c r="D14">
-        <v>2.912724796319535</v>
+        <v>10.42524497311665</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>47.0668470656714</v>
+        <v>32.59679079963538</v>
       </c>
       <c r="G14">
-        <v>2.068469793104384</v>
+        <v>38.57895559147275</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.70717937982979</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.000742049995873</v>
+        <v>9.62213513145776</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.1689411048519</v>
       </c>
       <c r="L14">
-        <v>8.292993182666775</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.05172114328976</v>
       </c>
       <c r="O14">
-        <v>35.34096650280517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.63306137604359</v>
+        <v>18.5315806255253</v>
       </c>
       <c r="C15">
-        <v>16.28953121870127</v>
+        <v>10.13852966041049</v>
       </c>
       <c r="D15">
-        <v>2.905719164199581</v>
+        <v>10.37227254615746</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>46.88447558930224</v>
+        <v>32.48656824537031</v>
       </c>
       <c r="G15">
-        <v>2.069918272313916</v>
+        <v>38.44281682414825</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.69457723952442</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.006835100224866</v>
+        <v>9.585159300607142</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.07859025973853</v>
       </c>
       <c r="L15">
-        <v>8.268668444916951</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.08050132297767</v>
       </c>
       <c r="O15">
-        <v>35.20967663701249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.5694861361787</v>
+        <v>17.90811408263631</v>
       </c>
       <c r="C16">
-        <v>15.75018055337311</v>
+        <v>9.812629142761155</v>
       </c>
       <c r="D16">
-        <v>2.866125860756161</v>
+        <v>10.06528155835147</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>45.84751844218532</v>
+        <v>31.85924106059616</v>
       </c>
       <c r="G16">
-        <v>2.078221897767898</v>
+        <v>37.66967267335188</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.62566093826389</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.042193159454809</v>
+        <v>9.373076545302887</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.55288040475177</v>
       </c>
       <c r="L16">
-        <v>8.129990507795608</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.2460711235615</v>
       </c>
       <c r="O16">
-        <v>34.46456112080526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.90591132206096</v>
+        <v>17.51705929738579</v>
       </c>
       <c r="C17">
-        <v>15.41348302616206</v>
+        <v>9.60838126034054</v>
       </c>
       <c r="D17">
-        <v>2.842289886830772</v>
+        <v>9.873908673953174</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.21845523262471</v>
+        <v>31.47828980092907</v>
       </c>
       <c r="G17">
-        <v>2.083322930533622</v>
+        <v>37.20166378436989</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.58626174558428</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.064276978715279</v>
+        <v>9.242828514745414</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.22322151795596</v>
       </c>
       <c r="L17">
-        <v>8.045551794230962</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.34823885533568</v>
       </c>
       <c r="O17">
-        <v>34.01376280181788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.52007440640722</v>
+        <v>17.28895297100722</v>
       </c>
       <c r="C18">
-        <v>15.21763096685594</v>
+        <v>9.48930144110493</v>
       </c>
       <c r="D18">
-        <v>2.828731487028239</v>
+        <v>9.762724903552876</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.8591720882756</v>
+        <v>31.26062791422369</v>
       </c>
       <c r="G18">
-        <v>2.086261142271702</v>
+        <v>36.93480510673183</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.56463175232366</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.077123052385231</v>
+        <v>9.167873000571502</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.03095754552809</v>
       </c>
       <c r="L18">
-        <v>7.997217868189686</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.40723111987434</v>
       </c>
       <c r="O18">
-        <v>33.75673467122643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.38871359396754</v>
+        <v>17.21117084907096</v>
       </c>
       <c r="C19">
-        <v>15.15093752946817</v>
+        <v>9.448706592360526</v>
       </c>
       <c r="D19">
-        <v>2.824165490866228</v>
+        <v>9.724890020888182</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.73795574969194</v>
+        <v>31.18718274101807</v>
       </c>
       <c r="G19">
-        <v>2.0872568464947</v>
+        <v>36.84485290174095</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.55748284033217</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.081497228860273</v>
+        <v>9.142488687565638</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.9654023944159</v>
       </c>
       <c r="L19">
-        <v>7.980892882878765</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.42724491457721</v>
       </c>
       <c r="O19">
-        <v>33.67009251800451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.97697936478874</v>
+        <v>17.55901641328625</v>
       </c>
       <c r="C20">
-        <v>15.44955083463815</v>
+        <v>9.630289255863229</v>
       </c>
       <c r="D20">
-        <v>2.844811267159148</v>
+        <v>9.894395840623318</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.28515622188767</v>
+        <v>31.51869301786443</v>
       </c>
       <c r="G20">
-        <v>2.082779514747035</v>
+        <v>37.25124363451678</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.59034851614957</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.061911204491864</v>
+        <v>9.256698100967435</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.25858829890931</v>
       </c>
       <c r="L20">
-        <v>8.054516328700089</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.33733952290721</v>
       </c>
       <c r="O20">
-        <v>34.06151604617506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.90429637966832</v>
+        <v>18.68991997963414</v>
       </c>
       <c r="C21">
-        <v>16.42702582980115</v>
+        <v>10.22134824912713</v>
       </c>
       <c r="D21">
-        <v>2.916094567581591</v>
+        <v>10.45058590962622</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>47.1544461286956</v>
+        <v>32.6497212789444</v>
       </c>
       <c r="G21">
-        <v>2.067775196400492</v>
+        <v>38.64436150599132</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.71328179919258</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.997828087721412</v>
+        <v>9.639862366218326</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.21212714257652</v>
       </c>
       <c r="L21">
-        <v>8.304670340847547</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.03793130157317</v>
       </c>
       <c r="O21">
-        <v>35.40405447424003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.12873424165002</v>
+        <v>19.40133582268724</v>
       </c>
       <c r="C22">
-        <v>17.0475117423211</v>
+        <v>10.59370190983028</v>
       </c>
       <c r="D22">
-        <v>2.964370033295134</v>
+        <v>10.80406855561924</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.40029956515096</v>
+        <v>33.40146059749327</v>
       </c>
       <c r="G22">
-        <v>2.05796993049377</v>
+        <v>39.57529334781619</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.80337650009398</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.957236670031954</v>
+        <v>9.889696942567264</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.81222461120831</v>
       </c>
       <c r="L22">
-        <v>8.470271136504323</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.84408869114223</v>
       </c>
       <c r="O22">
-        <v>36.30299789855924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.47834378851082</v>
+        <v>19.0241417497226</v>
       </c>
       <c r="C23">
-        <v>16.71796392310383</v>
+        <v>10.39622823835816</v>
       </c>
       <c r="D23">
-        <v>2.938432127266926</v>
+        <v>10.61632838698434</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>47.73305749653257</v>
+        <v>32.99910852852882</v>
       </c>
       <c r="G23">
-        <v>2.063205028911307</v>
+        <v>39.07657437534159</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.75437142439205</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.978782479050368</v>
+        <v>9.75641781533251</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.49402777416967</v>
       </c>
       <c r="L23">
-        <v>8.38169006695634</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.94738737109147</v>
       </c>
       <c r="O23">
-        <v>35.82116425902198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.94486303739394</v>
+        <v>17.54005783619053</v>
       </c>
       <c r="C24">
-        <v>15.43325169296389</v>
+        <v>9.620389809505552</v>
       </c>
       <c r="D24">
-        <v>2.843670902340763</v>
+        <v>9.88513720692124</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.25499332600337</v>
+        <v>31.50042250729039</v>
       </c>
       <c r="G24">
-        <v>2.083025175318225</v>
+        <v>37.22882170964866</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.58849771284814</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.06298030452397</v>
+        <v>9.25042788929305</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.24260751334704</v>
       </c>
       <c r="L24">
-        <v>8.050462805540226</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.34226631571078</v>
       </c>
       <c r="O24">
-        <v>34.0399201467682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17869495568558</v>
+        <v>15.8172478052716</v>
       </c>
       <c r="C25">
-        <v>13.96316991701608</v>
+        <v>8.722131707033762</v>
       </c>
       <c r="D25">
-        <v>2.747104933668145</v>
+        <v>9.054163873553641</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.67886320472995</v>
+        <v>29.93973609672311</v>
       </c>
       <c r="G25">
-        <v>2.104582073850766</v>
+        <v>35.32507511076206</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.44867735412966</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.159308823418102</v>
+        <v>8.703333264412018</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.79105831876524</v>
       </c>
       <c r="L25">
-        <v>7.702145168488491</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.77703892125954</v>
       </c>
       <c r="O25">
-        <v>32.20465033599651</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.4404513342629</v>
+        <v>12.54411316685208</v>
       </c>
       <c r="C2">
-        <v>8.006350483774103</v>
+        <v>5.068419542088611</v>
       </c>
       <c r="D2">
-        <v>8.407456412391252</v>
+        <v>9.622403156076201</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.84144501198619</v>
+        <v>37.70709593666341</v>
       </c>
       <c r="G2">
-        <v>34.00240340643405</v>
+        <v>41.61080073299033</v>
       </c>
       <c r="H2">
-        <v>11.37628590963661</v>
+        <v>17.43169091620247</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.30115078182579</v>
+        <v>11.43319890724648</v>
       </c>
       <c r="K2">
-        <v>12.63209964172522</v>
+        <v>11.95286578398602</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.10584014982489</v>
+        <v>20.14647764592812</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.43824944412343</v>
+        <v>12.30158481872836</v>
       </c>
       <c r="C3">
-        <v>7.486668546779837</v>
+        <v>4.871746744194202</v>
       </c>
       <c r="D3">
-        <v>7.948753637822225</v>
+        <v>9.545719509806595</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.13056373140379</v>
+        <v>37.68850363687537</v>
       </c>
       <c r="G3">
-        <v>33.15668521496507</v>
+        <v>41.5753797004106</v>
       </c>
       <c r="H3">
-        <v>11.34474374843556</v>
+        <v>17.47102299053211</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.030180108453678</v>
+        <v>11.41709592714542</v>
       </c>
       <c r="K3">
-        <v>11.78917718038569</v>
+        <v>11.79085833321793</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.33461137744982</v>
+        <v>20.21178750672752</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.78830342000667</v>
+        <v>12.15340104113525</v>
       </c>
       <c r="C4">
-        <v>7.150350876073413</v>
+        <v>4.747951682780722</v>
       </c>
       <c r="D4">
-        <v>7.65768565025248</v>
+        <v>9.500381069063902</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.71118067559489</v>
+        <v>37.68632663181745</v>
       </c>
       <c r="G4">
-        <v>32.66282955207666</v>
+        <v>41.56551440761876</v>
       </c>
       <c r="H4">
-        <v>11.33350445429254</v>
+        <v>17.49818608876716</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.865065408023336</v>
+        <v>11.40953206508962</v>
       </c>
       <c r="K4">
-        <v>11.2429035199701</v>
+        <v>11.69303207586573</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.47817409352191</v>
+        <v>20.2537646026878</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.51467920618081</v>
+        <v>12.09328729776291</v>
       </c>
       <c r="C5">
-        <v>7.008947544732693</v>
+        <v>4.696823374737464</v>
       </c>
       <c r="D5">
-        <v>7.536828452205671</v>
+        <v>9.482361497423772</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.54466882738081</v>
+        <v>37.68776304413129</v>
       </c>
       <c r="G5">
-        <v>32.46802634934451</v>
+        <v>41.56448158848663</v>
       </c>
       <c r="H5">
-        <v>11.33089212582084</v>
+        <v>17.5100118243093</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.798176617564269</v>
+        <v>11.40703599513744</v>
       </c>
       <c r="K5">
-        <v>11.01302448588907</v>
+        <v>11.65363009608698</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.53747901614881</v>
+        <v>20.27134375043406</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.46871274263043</v>
+        <v>12.083324523018</v>
       </c>
       <c r="C6">
-        <v>6.985204414779942</v>
+        <v>4.688295032459756</v>
       </c>
       <c r="D6">
-        <v>7.516628799938045</v>
+        <v>9.479397403313337</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.51728726001451</v>
+        <v>37.68814187705778</v>
       </c>
       <c r="G6">
-        <v>32.43607004376324</v>
+        <v>41.56449044548015</v>
       </c>
       <c r="H6">
-        <v>11.33057497746234</v>
+        <v>17.51202113900326</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.787096164331954</v>
+        <v>11.40665698410207</v>
       </c>
       <c r="K6">
-        <v>10.97441299063572</v>
+        <v>11.64711680546661</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.54737566014609</v>
+        <v>20.27429136813905</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.78464880911798</v>
+        <v>12.15258910525166</v>
       </c>
       <c r="C7">
-        <v>7.148461498837133</v>
+        <v>4.747264789175391</v>
       </c>
       <c r="D7">
-        <v>7.656064632105072</v>
+        <v>9.500136181452442</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.70891715077759</v>
+        <v>37.68633659650032</v>
       </c>
       <c r="G7">
-        <v>32.66017620516566</v>
+        <v>41.56548838598685</v>
       </c>
       <c r="H7">
-        <v>11.33346135646566</v>
+        <v>17.49834251306209</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.864161607278637</v>
+        <v>11.40949602610718</v>
       </c>
       <c r="K7">
-        <v>11.23983277812697</v>
+        <v>11.69249874826723</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.47897062292265</v>
+        <v>20.25399976384602</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.10202935015972</v>
+        <v>12.46039091004514</v>
       </c>
       <c r="C8">
-        <v>7.8307275194534</v>
+        <v>5.001284185419268</v>
       </c>
       <c r="D8">
-        <v>8.251318293100462</v>
+        <v>9.595610930031164</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.59284003062674</v>
+        <v>37.698768516435</v>
       </c>
       <c r="G8">
-        <v>33.70556227022546</v>
+        <v>41.59612144667724</v>
       </c>
       <c r="H8">
-        <v>11.36367753541956</v>
+        <v>17.44462661440648</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.207503970188219</v>
+        <v>11.42716570856106</v>
       </c>
       <c r="K8">
-        <v>12.34738991378209</v>
+        <v>11.89669330903684</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.18409214202798</v>
+        <v>20.16860776410729</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.41418423384276</v>
+        <v>13.06594888618606</v>
       </c>
       <c r="C9">
-        <v>9.033063428001272</v>
+        <v>5.472109160266125</v>
       </c>
       <c r="D9">
-        <v>9.339626265167285</v>
+        <v>9.795892254234783</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.45777298426918</v>
+        <v>37.79636976874564</v>
       </c>
       <c r="G9">
-        <v>35.95425009055313</v>
+        <v>41.75040633847654</v>
       </c>
       <c r="H9">
-        <v>11.49082409217607</v>
+        <v>17.36324454640333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.88766120750951</v>
+        <v>11.48014493139718</v>
       </c>
       <c r="K9">
-        <v>14.29385167770049</v>
+        <v>12.30801327228447</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.62930802105036</v>
+        <v>20.01598545913217</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.95230710426369</v>
+        <v>13.50707982201888</v>
       </c>
       <c r="C10">
-        <v>9.835719248042485</v>
+        <v>5.797658401933681</v>
       </c>
       <c r="D10">
-        <v>10.08696737754155</v>
+        <v>9.949887987711531</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.90290534171866</v>
+        <v>37.9125081646734</v>
       </c>
       <c r="G10">
-        <v>37.72338989313729</v>
+        <v>41.92093033637725</v>
       </c>
       <c r="H10">
-        <v>11.63029833509631</v>
+        <v>17.31811871090716</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.387932385563019</v>
+        <v>11.53007447440634</v>
       </c>
       <c r="K10">
-        <v>15.59013903529371</v>
+        <v>12.61393451136418</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.23444332691418</v>
+        <v>19.91281156750085</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.61826351400338</v>
+        <v>13.70595238118333</v>
       </c>
       <c r="C11">
-        <v>10.18386616543721</v>
+        <v>5.940703004367634</v>
       </c>
       <c r="D11">
-        <v>10.41512831822915</v>
+        <v>10.02118532445091</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.57569628806863</v>
+        <v>37.97491144667168</v>
       </c>
       <c r="G11">
-        <v>38.55289462998329</v>
+        <v>42.01080806307576</v>
       </c>
       <c r="H11">
-        <v>11.70475649998405</v>
+        <v>17.30078610065147</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.61506501992679</v>
+        <v>11.55513371049671</v>
       </c>
       <c r="K11">
-        <v>16.1516938264325</v>
+        <v>12.75330341157816</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.05722237363201</v>
+        <v>19.86780235375937</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.86568721535395</v>
+        <v>13.78092404067589</v>
       </c>
       <c r="C12">
-        <v>10.31330633125915</v>
+        <v>5.994100424001576</v>
       </c>
       <c r="D12">
-        <v>10.53767674951295</v>
+        <v>10.0483414599651</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.83262196846196</v>
+        <v>37.99990873001416</v>
       </c>
       <c r="G12">
-        <v>38.87051851457706</v>
+        <v>42.04659797900592</v>
       </c>
       <c r="H12">
-        <v>11.73461831329006</v>
+        <v>17.29468299635844</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.700976206777197</v>
+        <v>11.56495583180442</v>
       </c>
       <c r="K12">
-        <v>16.36037334682394</v>
+        <v>12.80605824698744</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.99043025360237</v>
+        <v>19.85103406873402</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.8126102385915</v>
+        <v>13.76479374271199</v>
       </c>
       <c r="C13">
-        <v>10.28553481655444</v>
+        <v>5.982635243657406</v>
       </c>
       <c r="D13">
-        <v>10.51136039067211</v>
+        <v>10.04248624444178</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.77719330754876</v>
+        <v>37.99446451622593</v>
       </c>
       <c r="G13">
-        <v>38.80195693255767</v>
+        <v>42.03881217534706</v>
       </c>
       <c r="H13">
-        <v>11.72811160665303</v>
+        <v>17.29597692041521</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.682478541058654</v>
+        <v>11.56282574196083</v>
       </c>
       <c r="K13">
-        <v>16.31560572729333</v>
+        <v>12.79469827844396</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.00480145909829</v>
+        <v>19.85463317324973</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.63871404775091</v>
+        <v>13.71212753262283</v>
       </c>
       <c r="C14">
-        <v>10.19456300906251</v>
+        <v>5.945111716255959</v>
       </c>
       <c r="D14">
-        <v>10.42524497311665</v>
+        <v>10.02341644552931</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.59679079963538</v>
+        <v>37.9769406635676</v>
       </c>
       <c r="G14">
-        <v>38.57895559147275</v>
+        <v>42.01371743642668</v>
       </c>
       <c r="H14">
-        <v>11.70717937982979</v>
+        <v>17.30027476314764</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.62213513145776</v>
+        <v>11.55593514185062</v>
       </c>
       <c r="K14">
-        <v>16.1689411048519</v>
+        <v>12.75764429154103</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.05172114328976</v>
+        <v>19.86641729712441</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.5315806255253</v>
+        <v>13.67982181498211</v>
       </c>
       <c r="C15">
-        <v>10.13852966041049</v>
+        <v>5.922025921104356</v>
       </c>
       <c r="D15">
-        <v>10.37227254615746</v>
+        <v>10.0117554983346</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.48656824537031</v>
+        <v>37.9663844376359</v>
       </c>
       <c r="G15">
-        <v>38.44281682414825</v>
+        <v>41.99857428792813</v>
       </c>
       <c r="H15">
-        <v>11.69457723952442</v>
+        <v>17.30296729565568</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.585159300607142</v>
+        <v>11.55175763750228</v>
       </c>
       <c r="K15">
-        <v>16.07859025973853</v>
+        <v>12.73494342683222</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.08050132297767</v>
+        <v>19.87367128868548</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.90811408263631</v>
+        <v>13.49404002687383</v>
       </c>
       <c r="C16">
-        <v>9.812629142761155</v>
+        <v>5.788204561391532</v>
       </c>
       <c r="D16">
-        <v>10.06528155835147</v>
+        <v>9.945251736464858</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.85924106059616</v>
+        <v>37.90862176158461</v>
       </c>
       <c r="G16">
-        <v>37.66967267335188</v>
+        <v>41.91530306883548</v>
       </c>
       <c r="H16">
-        <v>11.62566093826389</v>
+        <v>17.31931581480567</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.373076545302887</v>
+        <v>11.5284836169295</v>
       </c>
       <c r="K16">
-        <v>15.55288040475177</v>
+        <v>12.6048261848015</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.2460711235615</v>
+        <v>19.91579166911884</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.51705929738579</v>
+        <v>13.37955087599124</v>
       </c>
       <c r="C17">
-        <v>9.60838126034054</v>
+        <v>5.704782688157677</v>
       </c>
       <c r="D17">
-        <v>9.873908673953174</v>
+        <v>9.904757194816943</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.47828980092907</v>
+        <v>37.87563122570064</v>
       </c>
       <c r="G17">
-        <v>37.20166378436989</v>
+        <v>41.86736125628257</v>
       </c>
       <c r="H17">
-        <v>11.58626174558428</v>
+        <v>17.33016417326538</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.242828514745414</v>
+        <v>11.51480347913438</v>
       </c>
       <c r="K17">
-        <v>15.22322151795596</v>
+        <v>12.52501937250284</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.34823885533568</v>
+        <v>19.94212343654333</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.28895297100722</v>
+        <v>13.31353472566767</v>
       </c>
       <c r="C18">
-        <v>9.48930144110493</v>
+        <v>5.656327602573423</v>
       </c>
       <c r="D18">
-        <v>9.762724903552876</v>
+        <v>9.881584188687462</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.26062791422369</v>
+        <v>37.8575575390101</v>
       </c>
       <c r="G18">
-        <v>36.93480510673183</v>
+        <v>41.84094567669148</v>
       </c>
       <c r="H18">
-        <v>11.56463175232366</v>
+        <v>17.33670457694044</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.167873000571502</v>
+        <v>11.50715614970239</v>
       </c>
       <c r="K18">
-        <v>15.03095754552809</v>
+        <v>12.47913873215419</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.40723111987434</v>
+        <v>19.95745003767627</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.21117084907096</v>
+        <v>13.29115690193393</v>
       </c>
       <c r="C19">
-        <v>9.448706592360526</v>
+        <v>5.639841752625311</v>
       </c>
       <c r="D19">
-        <v>9.724890020888182</v>
+        <v>9.873759191287826</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.18718274101807</v>
+        <v>37.85159322122329</v>
       </c>
       <c r="G19">
-        <v>36.84485290174095</v>
+        <v>41.83220131643112</v>
       </c>
       <c r="H19">
-        <v>11.55748284033217</v>
+        <v>17.33897066466821</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.142488687565638</v>
+        <v>11.5046050076152</v>
       </c>
       <c r="K19">
-        <v>14.9654023944159</v>
+        <v>12.46360969418636</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.42724491457721</v>
+        <v>19.96267052771636</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.55901641328625</v>
+        <v>13.39175610045993</v>
       </c>
       <c r="C20">
-        <v>9.630289255863229</v>
+        <v>5.713712386618359</v>
       </c>
       <c r="D20">
-        <v>9.894395840623318</v>
+        <v>9.90905581083697</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.51869301786443</v>
+        <v>37.87904987843214</v>
       </c>
       <c r="G20">
-        <v>37.25124363451678</v>
+        <v>41.87234485794419</v>
       </c>
       <c r="H20">
-        <v>11.59034851614957</v>
+        <v>17.32897821735012</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.256698100967435</v>
+        <v>11.5162368998192</v>
       </c>
       <c r="K20">
-        <v>15.25858829890931</v>
+        <v>12.53351302339466</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.33733952290721</v>
+        <v>19.93930162269763</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.68991997963414</v>
+        <v>13.72760662487711</v>
       </c>
       <c r="C21">
-        <v>10.22134824912713</v>
+        <v>5.956154519827909</v>
       </c>
       <c r="D21">
-        <v>10.45058590962622</v>
+        <v>10.02901360844912</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.6497212789444</v>
+        <v>37.98205084381101</v>
       </c>
       <c r="G21">
-        <v>38.64436150599132</v>
+        <v>42.02104086228101</v>
       </c>
       <c r="H21">
-        <v>11.71328179919258</v>
+        <v>17.2989998813759</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.639862366218326</v>
+        <v>11.5579500868016</v>
       </c>
       <c r="K21">
-        <v>16.21212714257652</v>
+        <v>12.76852891486852</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.03793130157317</v>
+        <v>19.86294853982564</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.40133582268724</v>
+        <v>13.94510650568737</v>
       </c>
       <c r="C22">
-        <v>10.59370190983028</v>
+        <v>6.110097145691094</v>
       </c>
       <c r="D22">
-        <v>10.80406855561924</v>
+        <v>10.10832025429421</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.40146059749327</v>
+        <v>38.05732727280751</v>
       </c>
       <c r="G22">
-        <v>39.57529334781619</v>
+        <v>42.12844425057258</v>
       </c>
       <c r="H22">
-        <v>11.80337650009398</v>
+        <v>17.28209109232017</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.889696942567264</v>
+        <v>11.5871490477758</v>
       </c>
       <c r="K22">
-        <v>16.81222461120831</v>
+        <v>12.92197975252101</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.84408869114223</v>
+        <v>19.81465403638849</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.0241417497226</v>
+        <v>13.82923024427747</v>
       </c>
       <c r="C23">
-        <v>10.39622823835816</v>
+        <v>6.028360618033768</v>
       </c>
       <c r="D23">
-        <v>10.61632838698434</v>
+        <v>10.06591692041432</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.99910852852882</v>
+        <v>38.01642623001763</v>
       </c>
       <c r="G23">
-        <v>39.07657437534159</v>
+        <v>42.07019115871974</v>
       </c>
       <c r="H23">
-        <v>11.75437142439205</v>
+        <v>17.29086979529654</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.75641781533251</v>
+        <v>11.57138941404667</v>
       </c>
       <c r="K23">
-        <v>16.49402777416967</v>
+        <v>12.84010978519315</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.94738737109147</v>
+        <v>19.84028307304503</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.54005783619053</v>
+        <v>13.38623871925101</v>
       </c>
       <c r="C24">
-        <v>9.620389809505552</v>
+        <v>5.709676807524191</v>
       </c>
       <c r="D24">
-        <v>9.88513720692124</v>
+        <v>9.907112068980428</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.50042250729039</v>
+        <v>37.87750152304067</v>
       </c>
       <c r="G24">
-        <v>37.22882170964866</v>
+        <v>41.87008819823299</v>
       </c>
       <c r="H24">
-        <v>11.58849771284814</v>
+        <v>17.32951344253258</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.25042788929305</v>
+        <v>11.51558817229651</v>
       </c>
       <c r="K24">
-        <v>15.24260751334704</v>
+        <v>12.52967303570615</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.34226631571078</v>
+        <v>19.94057677863002</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.8172478052716</v>
+        <v>12.90244372142014</v>
       </c>
       <c r="C25">
-        <v>8.722131707033762</v>
+        <v>5.348076227992377</v>
       </c>
       <c r="D25">
-        <v>9.054163873553641</v>
+        <v>9.740425568683454</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.93973609672311</v>
+        <v>37.76214183451662</v>
       </c>
       <c r="G25">
-        <v>35.32507511076206</v>
+        <v>41.69859855502845</v>
       </c>
       <c r="H25">
-        <v>11.44867735412966</v>
+        <v>17.38268930164417</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.703333264412018</v>
+        <v>11.4638660081454</v>
       </c>
       <c r="K25">
-        <v>13.79105831876524</v>
+        <v>12.19587614869071</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.77703892125954</v>
+        <v>20.05569476991806</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.54411316685208</v>
+        <v>14.44045133426286</v>
       </c>
       <c r="C2">
-        <v>5.068419542088611</v>
+        <v>8.006350483774147</v>
       </c>
       <c r="D2">
-        <v>9.622403156076201</v>
+        <v>8.407456412391211</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.70709593666341</v>
+        <v>28.84144501198622</v>
       </c>
       <c r="G2">
-        <v>41.61080073299033</v>
+        <v>34.00240340643402</v>
       </c>
       <c r="H2">
-        <v>17.43169091620247</v>
+        <v>11.37628590963664</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.43319890724648</v>
+        <v>8.30115078182574</v>
       </c>
       <c r="K2">
-        <v>11.95286578398602</v>
+        <v>12.63209964172519</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.14647764592812</v>
+        <v>13.10584014982492</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.30158481872836</v>
+        <v>13.43824944412345</v>
       </c>
       <c r="C3">
-        <v>4.871746744194202</v>
+        <v>7.486668546779927</v>
       </c>
       <c r="D3">
-        <v>9.545719509806595</v>
+        <v>7.948753637822262</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.68850363687537</v>
+        <v>28.13056373140373</v>
       </c>
       <c r="G3">
-        <v>41.5753797004106</v>
+        <v>33.15668521496503</v>
       </c>
       <c r="H3">
-        <v>17.47102299053211</v>
+        <v>11.3447437484355</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.41709592714542</v>
+        <v>8.030180108453695</v>
       </c>
       <c r="K3">
-        <v>11.79085833321793</v>
+        <v>11.78917718038572</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.21178750672752</v>
+        <v>13.33461137744978</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.15340104113525</v>
+        <v>12.78830342000665</v>
       </c>
       <c r="C4">
-        <v>4.747951682780722</v>
+        <v>7.150350876073325</v>
       </c>
       <c r="D4">
-        <v>9.500381069063902</v>
+        <v>7.65768565025248</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.68632663181745</v>
+        <v>27.71118067559508</v>
       </c>
       <c r="G4">
-        <v>41.56551440761876</v>
+        <v>32.66282955207697</v>
       </c>
       <c r="H4">
-        <v>17.49818608876716</v>
+        <v>11.33350445429259</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.40953206508962</v>
+        <v>7.8650654080233</v>
       </c>
       <c r="K4">
-        <v>11.69303207586573</v>
+        <v>11.24290351997007</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.2537646026878</v>
+        <v>13.47817409352201</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.09328729776291</v>
+        <v>12.5146792061808</v>
       </c>
       <c r="C5">
-        <v>4.696823374737464</v>
+        <v>7.008947544732634</v>
       </c>
       <c r="D5">
-        <v>9.482361497423772</v>
+        <v>7.536828452205638</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>37.68776304413129</v>
+        <v>27.544668827381</v>
       </c>
       <c r="G5">
-        <v>41.56448158848663</v>
+        <v>32.46802634934474</v>
       </c>
       <c r="H5">
-        <v>17.5100118243093</v>
+        <v>11.330892125821</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.40703599513744</v>
+        <v>7.798176617564291</v>
       </c>
       <c r="K5">
-        <v>11.65363009608698</v>
+        <v>11.01302448588904</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.27134375043406</v>
+        <v>13.53747901614898</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.083324523018</v>
+        <v>12.46871274263039</v>
       </c>
       <c r="C6">
-        <v>4.688295032459756</v>
+        <v>6.98520441478006</v>
       </c>
       <c r="D6">
-        <v>9.479397403313337</v>
+        <v>7.516628799937976</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.68814187705778</v>
+        <v>27.51728726001459</v>
       </c>
       <c r="G6">
-        <v>41.56449044548015</v>
+        <v>32.43607004376348</v>
       </c>
       <c r="H6">
-        <v>17.51202113900326</v>
+        <v>11.33057497746235</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.40665698410207</v>
+        <v>7.787096164332012</v>
       </c>
       <c r="K6">
-        <v>11.64711680546661</v>
+        <v>10.97441299063571</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.27429136813905</v>
+        <v>13.54737566014613</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.15258910525166</v>
+        <v>12.78464880911799</v>
       </c>
       <c r="C7">
-        <v>4.747264789175391</v>
+        <v>7.148461498837162</v>
       </c>
       <c r="D7">
-        <v>9.500136181452442</v>
+        <v>7.656064632105052</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.68633659650032</v>
+        <v>27.70891715077762</v>
       </c>
       <c r="G7">
-        <v>41.56548838598685</v>
+        <v>32.66017620516563</v>
       </c>
       <c r="H7">
-        <v>17.49834251306209</v>
+        <v>11.33346135646562</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.40949602610718</v>
+        <v>7.864161607278586</v>
       </c>
       <c r="K7">
-        <v>11.69249874826723</v>
+        <v>11.23983277812701</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.25399976384602</v>
+        <v>13.47897062292268</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.46039091004514</v>
+        <v>14.10202935015977</v>
       </c>
       <c r="C8">
-        <v>5.001284185419268</v>
+        <v>7.830727519453347</v>
       </c>
       <c r="D8">
-        <v>9.595610930031164</v>
+        <v>8.251318293100512</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.698768516435</v>
+        <v>28.59284003062675</v>
       </c>
       <c r="G8">
-        <v>41.59612144667724</v>
+        <v>33.7055622702256</v>
       </c>
       <c r="H8">
-        <v>17.44462661440648</v>
+        <v>11.36367753541951</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.42716570856106</v>
+        <v>8.207503970188206</v>
       </c>
       <c r="K8">
-        <v>11.89669330903684</v>
+        <v>12.34738991378212</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.16860776410729</v>
+        <v>13.18409214202794</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.06594888618606</v>
+        <v>16.41418423384274</v>
       </c>
       <c r="C9">
-        <v>5.472109160266125</v>
+        <v>9.033063428001196</v>
       </c>
       <c r="D9">
-        <v>9.795892254234783</v>
+        <v>9.339626265167265</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.79636976874564</v>
+        <v>30.45777298426922</v>
       </c>
       <c r="G9">
-        <v>41.75040633847654</v>
+        <v>35.95425009055329</v>
       </c>
       <c r="H9">
-        <v>17.36324454640333</v>
+        <v>11.4908240921761</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.48014493139718</v>
+        <v>8.887661207509504</v>
       </c>
       <c r="K9">
-        <v>12.30801327228447</v>
+        <v>14.29385167770043</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.01598545913217</v>
+        <v>12.62930802105042</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.50707982201888</v>
+        <v>17.95230710426377</v>
       </c>
       <c r="C10">
-        <v>5.797658401933681</v>
+        <v>9.835719248042428</v>
       </c>
       <c r="D10">
-        <v>9.949887987711531</v>
+        <v>10.08696737754154</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.9125081646734</v>
+        <v>31.9029053417185</v>
       </c>
       <c r="G10">
-        <v>41.92093033637725</v>
+        <v>37.72338989313706</v>
       </c>
       <c r="H10">
-        <v>17.31811871090716</v>
+        <v>11.63029833509624</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.53007447440634</v>
+        <v>9.387932385563028</v>
       </c>
       <c r="K10">
-        <v>12.61393451136418</v>
+        <v>15.59013903529377</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.91281156750085</v>
+        <v>12.23444332691402</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.70595238118333</v>
+        <v>18.61826351400341</v>
       </c>
       <c r="C11">
-        <v>5.940703004367634</v>
+        <v>10.1838661654372</v>
       </c>
       <c r="D11">
-        <v>10.02118532445091</v>
+        <v>10.4151283182291</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>37.97491144667168</v>
+        <v>32.57569628806862</v>
       </c>
       <c r="G11">
-        <v>42.01080806307576</v>
+        <v>38.55289462998327</v>
       </c>
       <c r="H11">
-        <v>17.30078610065147</v>
+        <v>11.70475649998402</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.55513371049671</v>
+        <v>9.615065019926769</v>
       </c>
       <c r="K11">
-        <v>12.75330341157816</v>
+        <v>16.15169382643252</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.86780235375937</v>
+        <v>12.05722237363196</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.78092404067589</v>
+        <v>18.86568721535398</v>
       </c>
       <c r="C12">
-        <v>5.994100424001576</v>
+        <v>10.31330633125924</v>
       </c>
       <c r="D12">
-        <v>10.0483414599651</v>
+        <v>10.53767674951292</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>37.99990873001416</v>
+        <v>32.83262196846188</v>
       </c>
       <c r="G12">
-        <v>42.04659797900592</v>
+        <v>38.870518514577</v>
       </c>
       <c r="H12">
-        <v>17.29468299635844</v>
+        <v>11.73461831329009</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.56495583180442</v>
+        <v>9.700976206777145</v>
       </c>
       <c r="K12">
-        <v>12.80605824698744</v>
+        <v>16.36037334682399</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.85103406873402</v>
+        <v>11.99043025360247</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.76479374271199</v>
+        <v>18.81261023859155</v>
       </c>
       <c r="C13">
-        <v>5.982635243657406</v>
+        <v>10.28553481655436</v>
       </c>
       <c r="D13">
-        <v>10.04248624444178</v>
+        <v>10.51136039067213</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>37.99446451622593</v>
+        <v>32.77719330754873</v>
       </c>
       <c r="G13">
-        <v>42.03881217534706</v>
+        <v>38.80195693255763</v>
       </c>
       <c r="H13">
-        <v>17.29597692041521</v>
+        <v>11.72811160665303</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.56282574196083</v>
+        <v>9.68247854105863</v>
       </c>
       <c r="K13">
-        <v>12.79469827844396</v>
+        <v>16.31560572729335</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.85463317324973</v>
+        <v>12.00480145909829</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.71212753262283</v>
+        <v>18.63871404775095</v>
       </c>
       <c r="C14">
-        <v>5.945111716255959</v>
+        <v>10.19456300906237</v>
       </c>
       <c r="D14">
-        <v>10.02341644552931</v>
+        <v>10.42524497311665</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>37.9769406635676</v>
+        <v>32.59679079963529</v>
       </c>
       <c r="G14">
-        <v>42.01371743642668</v>
+        <v>38.57895559147268</v>
       </c>
       <c r="H14">
-        <v>17.30027476314764</v>
+        <v>11.70717937982975</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.55593514185062</v>
+        <v>9.622135131457773</v>
       </c>
       <c r="K14">
-        <v>12.75764429154103</v>
+        <v>16.1689411048519</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.86641729712441</v>
+        <v>12.05172114328969</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.67982181498211</v>
+        <v>18.53158062552534</v>
       </c>
       <c r="C15">
-        <v>5.922025921104356</v>
+        <v>10.13852966041061</v>
       </c>
       <c r="D15">
-        <v>10.0117554983346</v>
+        <v>10.37227254615743</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>37.9663844376359</v>
+        <v>32.48656824537029</v>
       </c>
       <c r="G15">
-        <v>41.99857428792813</v>
+        <v>38.44281682414826</v>
       </c>
       <c r="H15">
-        <v>17.30296729565568</v>
+        <v>11.6945772395244</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.55175763750228</v>
+        <v>9.585159300607152</v>
       </c>
       <c r="K15">
-        <v>12.73494342683222</v>
+        <v>16.07859025973862</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.87367128868548</v>
+        <v>12.08050132297758</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.49404002687383</v>
+        <v>17.90811408263634</v>
       </c>
       <c r="C16">
-        <v>5.788204561391532</v>
+        <v>9.812629142761226</v>
       </c>
       <c r="D16">
-        <v>9.945251736464858</v>
+        <v>10.06528155835148</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>37.90862176158461</v>
+        <v>31.85924106059611</v>
       </c>
       <c r="G16">
-        <v>41.91530306883548</v>
+        <v>37.66967267335179</v>
       </c>
       <c r="H16">
-        <v>17.31931581480567</v>
+        <v>11.62566093826382</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.5284836169295</v>
+        <v>9.373076545302888</v>
       </c>
       <c r="K16">
-        <v>12.6048261848015</v>
+        <v>15.55288040475182</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.91579166911884</v>
+        <v>12.24607112356143</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.37955087599124</v>
+        <v>17.5170592973858</v>
       </c>
       <c r="C17">
-        <v>5.704782688157677</v>
+        <v>9.608381260340469</v>
       </c>
       <c r="D17">
-        <v>9.904757194816943</v>
+        <v>9.873908673953165</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.87563122570064</v>
+        <v>31.47828980092907</v>
       </c>
       <c r="G17">
-        <v>41.86736125628257</v>
+        <v>37.20166378436984</v>
       </c>
       <c r="H17">
-        <v>17.33016417326538</v>
+        <v>11.58626174558428</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.51480347913438</v>
+        <v>9.242828514745428</v>
       </c>
       <c r="K17">
-        <v>12.52501937250284</v>
+        <v>15.22322151795592</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.94212343654333</v>
+        <v>12.34823885533568</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.31353472566767</v>
+        <v>17.28895297100718</v>
       </c>
       <c r="C18">
-        <v>5.656327602573423</v>
+        <v>9.48930144110488</v>
       </c>
       <c r="D18">
-        <v>9.881584188687462</v>
+        <v>9.762724903552874</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.8575575390101</v>
+        <v>31.26062791422369</v>
       </c>
       <c r="G18">
-        <v>41.84094567669148</v>
+        <v>36.93480510673184</v>
       </c>
       <c r="H18">
-        <v>17.33670457694044</v>
+        <v>11.56463175232364</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.50715614970239</v>
+        <v>9.167873000571502</v>
       </c>
       <c r="K18">
-        <v>12.47913873215419</v>
+        <v>15.03095754552806</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.95745003767627</v>
+        <v>12.40723111987437</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.29115690193393</v>
+        <v>17.21117084907098</v>
       </c>
       <c r="C19">
-        <v>5.639841752625311</v>
+        <v>9.448706592360494</v>
       </c>
       <c r="D19">
-        <v>9.873759191287826</v>
+        <v>9.724890020888203</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.85159322122329</v>
+        <v>31.18718274101809</v>
       </c>
       <c r="G19">
-        <v>41.83220131643112</v>
+        <v>36.84485290174102</v>
       </c>
       <c r="H19">
-        <v>17.33897066466821</v>
+        <v>11.55748284033208</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.5046050076152</v>
+        <v>9.142488687565651</v>
       </c>
       <c r="K19">
-        <v>12.46360969418636</v>
+        <v>14.9654023944159</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.96267052771636</v>
+        <v>12.42724491457721</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.39175610045993</v>
+        <v>17.55901641328626</v>
       </c>
       <c r="C20">
-        <v>5.713712386618359</v>
+        <v>9.630289255863152</v>
       </c>
       <c r="D20">
-        <v>9.90905581083697</v>
+        <v>9.894395840623288</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.87904987843214</v>
+        <v>31.51869301786443</v>
       </c>
       <c r="G20">
-        <v>41.87234485794419</v>
+        <v>37.25124363451677</v>
       </c>
       <c r="H20">
-        <v>17.32897821735012</v>
+        <v>11.59034851614957</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.5162368998192</v>
+        <v>9.256698100967442</v>
       </c>
       <c r="K20">
-        <v>12.53351302339466</v>
+        <v>15.2585882989093</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.93930162269763</v>
+        <v>12.33733952290721</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.72760662487711</v>
+        <v>18.68991997963408</v>
       </c>
       <c r="C21">
-        <v>5.956154519827909</v>
+        <v>10.22134824912733</v>
       </c>
       <c r="D21">
-        <v>10.02901360844912</v>
+        <v>10.45058590962623</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>37.98205084381101</v>
+        <v>32.64972127894431</v>
       </c>
       <c r="G21">
-        <v>42.02104086228101</v>
+        <v>38.64436150599126</v>
       </c>
       <c r="H21">
-        <v>17.2989998813759</v>
+        <v>11.71328179919256</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.5579500868016</v>
+        <v>9.63986236621832</v>
       </c>
       <c r="K21">
-        <v>12.76852891486852</v>
+        <v>16.21212714257651</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.86294853982564</v>
+        <v>12.03793130157316</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.94510650568737</v>
+        <v>19.40133582268719</v>
       </c>
       <c r="C22">
-        <v>6.110097145691094</v>
+        <v>10.5937019098304</v>
       </c>
       <c r="D22">
-        <v>10.10832025429421</v>
+        <v>10.80406855561923</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>38.05732727280751</v>
+        <v>33.40146059749329</v>
       </c>
       <c r="G22">
-        <v>42.12844425057258</v>
+        <v>39.57529334781623</v>
       </c>
       <c r="H22">
-        <v>17.28209109232017</v>
+        <v>11.80337650009399</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.5871490477758</v>
+        <v>9.88969694256723</v>
       </c>
       <c r="K22">
-        <v>12.92197975252101</v>
+        <v>16.81222461120832</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.81465403638849</v>
+        <v>11.84408869114227</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.82923024427747</v>
+        <v>19.02414174972261</v>
       </c>
       <c r="C23">
-        <v>6.028360618033768</v>
+        <v>10.39622823835797</v>
       </c>
       <c r="D23">
-        <v>10.06591692041432</v>
+        <v>10.61632838698433</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.01642623001763</v>
+        <v>32.99910852852887</v>
       </c>
       <c r="G23">
-        <v>42.07019115871974</v>
+        <v>39.07657437534171</v>
       </c>
       <c r="H23">
-        <v>17.29086979529654</v>
+        <v>11.75437142439209</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.57138941404667</v>
+        <v>9.756417815332496</v>
       </c>
       <c r="K23">
-        <v>12.84010978519315</v>
+        <v>16.4940277741696</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.84028307304503</v>
+        <v>11.94738737109154</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.38623871925101</v>
+        <v>17.54005783619051</v>
       </c>
       <c r="C24">
-        <v>5.709676807524191</v>
+        <v>9.620389809505616</v>
       </c>
       <c r="D24">
-        <v>9.907112068980428</v>
+        <v>9.885137206921232</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.87750152304067</v>
+        <v>31.50042250729034</v>
       </c>
       <c r="G24">
-        <v>41.87008819823299</v>
+        <v>37.22882170964859</v>
       </c>
       <c r="H24">
-        <v>17.32951344253258</v>
+        <v>11.58849771284812</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.51558817229651</v>
+        <v>9.250427889293016</v>
       </c>
       <c r="K24">
-        <v>12.52967303570615</v>
+        <v>15.24260751334704</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.94057677863002</v>
+        <v>12.34226631571081</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.90244372142014</v>
+        <v>15.81724780527164</v>
       </c>
       <c r="C25">
-        <v>5.348076227992377</v>
+        <v>8.722131707033705</v>
       </c>
       <c r="D25">
-        <v>9.740425568683454</v>
+        <v>9.054163873553605</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>37.76214183451662</v>
+        <v>29.93973609672307</v>
       </c>
       <c r="G25">
-        <v>41.69859855502845</v>
+        <v>35.32507511076206</v>
       </c>
       <c r="H25">
-        <v>17.38268930164417</v>
+        <v>11.44867735412967</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.4638660081454</v>
+        <v>8.703333264412038</v>
       </c>
       <c r="K25">
-        <v>12.19587614869071</v>
+        <v>13.79105831876524</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.05569476991806</v>
+        <v>12.77703892125951</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.44045133426286</v>
+        <v>24.08760880592464</v>
       </c>
       <c r="C2">
-        <v>8.006350483774147</v>
+        <v>14.41151183245689</v>
       </c>
       <c r="D2">
-        <v>8.407456412391211</v>
+        <v>6.599810768043968</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.84144501198622</v>
+        <v>19.14575578849948</v>
       </c>
       <c r="G2">
-        <v>34.00240340643402</v>
+        <v>19.86248609597643</v>
       </c>
       <c r="H2">
-        <v>11.37628590963664</v>
+        <v>2.093682329434692</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.74843326293833</v>
       </c>
       <c r="J2">
-        <v>8.30115078182574</v>
+        <v>8.467478550798145</v>
       </c>
       <c r="K2">
-        <v>12.63209964172519</v>
+        <v>13.24458369801882</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.431471078391433</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.10584014982492</v>
+        <v>8.649211556853192</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.46527676377385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.43824944412345</v>
+        <v>22.50361578806486</v>
       </c>
       <c r="C3">
-        <v>7.486668546779927</v>
+        <v>13.7812578229546</v>
       </c>
       <c r="D3">
-        <v>7.948753637822262</v>
+        <v>6.445184152120009</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.13056373140373</v>
+        <v>19.02028167649494</v>
       </c>
       <c r="G3">
-        <v>33.15668521496503</v>
+        <v>19.66149468393043</v>
       </c>
       <c r="H3">
-        <v>11.3447437484355</v>
+        <v>2.290093266316513</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.899400797816346</v>
       </c>
       <c r="J3">
-        <v>8.030180108453695</v>
+        <v>8.527660766295</v>
       </c>
       <c r="K3">
-        <v>11.78917718038572</v>
+        <v>13.49624695237943</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.412399248542899</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.33461137744978</v>
+        <v>8.323986927423819</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.5020595316393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.78830342000665</v>
+        <v>21.47088555310328</v>
       </c>
       <c r="C4">
-        <v>7.150350876073325</v>
+        <v>13.38162716177705</v>
       </c>
       <c r="D4">
-        <v>7.65768565025248</v>
+        <v>6.349222610568636</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.71118067559508</v>
+        <v>18.95273567883404</v>
       </c>
       <c r="G4">
-        <v>32.66282955207697</v>
+        <v>19.55300418161636</v>
       </c>
       <c r="H4">
-        <v>11.33350445429259</v>
+        <v>2.415073784689278</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.99611400070074</v>
       </c>
       <c r="J4">
-        <v>7.8650654080233</v>
+        <v>8.568121759708884</v>
       </c>
       <c r="K4">
-        <v>11.24290351997007</v>
+        <v>13.6556952348737</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.400022681092941</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.47817409352201</v>
+        <v>8.118426120239361</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.53248501748766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.5146792061808</v>
+        <v>21.03475545501945</v>
       </c>
       <c r="C5">
-        <v>7.008947544732634</v>
+        <v>13.22485213461589</v>
       </c>
       <c r="D5">
-        <v>7.536828452205638</v>
+        <v>6.310097451752224</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.544668827381</v>
+        <v>18.92062408949054</v>
       </c>
       <c r="G5">
-        <v>32.46802634934474</v>
+        <v>19.50042648359322</v>
       </c>
       <c r="H5">
-        <v>11.330892125821</v>
+        <v>2.467354176851198</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.039326325159385</v>
       </c>
       <c r="J5">
-        <v>7.798176617564291</v>
+        <v>8.583603050608096</v>
       </c>
       <c r="K5">
-        <v>11.01302448588904</v>
+        <v>13.71837425171044</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.394365055765778</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.53747901614898</v>
+        <v>8.034987490967717</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.54200973725196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.46871274263039</v>
+        <v>20.96128846062088</v>
       </c>
       <c r="C6">
-        <v>6.98520441478006</v>
+        <v>13.20980998327657</v>
       </c>
       <c r="D6">
-        <v>7.516628799937976</v>
+        <v>6.303827638924707</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.51728726001459</v>
+        <v>18.90695479660071</v>
       </c>
       <c r="G6">
-        <v>32.43607004376348</v>
+        <v>19.47719619862462</v>
       </c>
       <c r="H6">
-        <v>11.33057497746235</v>
+        <v>2.47638727288962</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.050152042288007</v>
       </c>
       <c r="J6">
-        <v>7.787096164332012</v>
+        <v>8.583945444939149</v>
       </c>
       <c r="K6">
-        <v>10.97441299063571</v>
+        <v>13.72455552604827</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.392873824078031</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.54737566014613</v>
+        <v>8.023153449894915</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.53786810910041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.78464880911799</v>
+        <v>21.4647193811693</v>
       </c>
       <c r="C7">
-        <v>7.148461498837162</v>
+        <v>13.40963935636007</v>
       </c>
       <c r="D7">
-        <v>7.656064632105052</v>
+        <v>6.349345273935671</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.70891715077762</v>
+        <v>18.92921846965161</v>
       </c>
       <c r="G7">
-        <v>32.66017620516563</v>
+        <v>19.51222863026197</v>
       </c>
       <c r="H7">
-        <v>11.33346135646562</v>
+        <v>2.416531720198801</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.006188658919946</v>
       </c>
       <c r="J7">
-        <v>7.864161607278586</v>
+        <v>8.562107838664518</v>
       </c>
       <c r="K7">
-        <v>11.23983277812701</v>
+        <v>13.64478856388309</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.39849128464501</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.47897062292268</v>
+        <v>8.12297121103752</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.51668241630019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.10202935015977</v>
+        <v>23.55347736243393</v>
       </c>
       <c r="C8">
-        <v>7.830727519453347</v>
+        <v>14.23501421317018</v>
       </c>
       <c r="D8">
-        <v>8.251318293100512</v>
+        <v>6.547579675065207</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.59284003062675</v>
+        <v>19.07037581791356</v>
       </c>
       <c r="G8">
-        <v>33.7055622702256</v>
+        <v>19.73787931689963</v>
       </c>
       <c r="H8">
-        <v>11.36367753541951</v>
+        <v>2.161425610597816</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.811868263853925</v>
       </c>
       <c r="J8">
-        <v>8.207503970188206</v>
+        <v>8.47928311957455</v>
       </c>
       <c r="K8">
-        <v>12.34738991378212</v>
+        <v>13.31478846659846</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.423205527788949</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.18409214202794</v>
+        <v>8.545501841223437</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.45531140957537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.41418423384274</v>
+        <v>27.17530604863133</v>
       </c>
       <c r="C9">
-        <v>9.033063428001196</v>
+        <v>15.6974874202518</v>
       </c>
       <c r="D9">
-        <v>9.339626265167265</v>
+        <v>6.925351538863318</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.45777298426922</v>
+        <v>19.46477787410746</v>
       </c>
       <c r="G9">
-        <v>35.95425009055329</v>
+        <v>20.37207908540294</v>
       </c>
       <c r="H9">
-        <v>11.4908240921761</v>
+        <v>1.694064616920091</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.510163197566985</v>
       </c>
       <c r="J9">
-        <v>8.887661207509504</v>
+        <v>8.356973403574829</v>
       </c>
       <c r="K9">
-        <v>14.29385167770043</v>
+        <v>12.7283361713809</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.468919541336046</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.62930802105042</v>
+        <v>9.314625205352844</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.4288231892283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.95230710426377</v>
+        <v>29.54875328754107</v>
       </c>
       <c r="C10">
-        <v>9.835719248042428</v>
+        <v>16.78103645870872</v>
       </c>
       <c r="D10">
-        <v>10.08696737754154</v>
+        <v>7.14891655735275</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.9029053417185</v>
+        <v>19.66197626924448</v>
       </c>
       <c r="G10">
-        <v>37.72338989313706</v>
+        <v>20.72474227202225</v>
       </c>
       <c r="H10">
-        <v>11.63029833509624</v>
+        <v>1.741420416859082</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.75337000052063</v>
       </c>
       <c r="J10">
-        <v>9.387932385563028</v>
+        <v>8.255731177036225</v>
       </c>
       <c r="K10">
-        <v>15.59013903529377</v>
+        <v>12.27158373682698</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.487456199747434</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.23444332691402</v>
+        <v>9.754623598664741</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.37486881675404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.61826351400341</v>
+        <v>30.55416210550444</v>
       </c>
       <c r="C11">
-        <v>10.1838661654372</v>
+        <v>17.87404985460767</v>
       </c>
       <c r="D11">
-        <v>10.4151283182291</v>
+        <v>6.854760320645435</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.57569628806862</v>
+        <v>18.59999194167482</v>
       </c>
       <c r="G11">
-        <v>38.55289462998327</v>
+        <v>19.35668654611729</v>
       </c>
       <c r="H11">
-        <v>11.70475649998402</v>
+        <v>2.722416448050552</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.835854839390269</v>
       </c>
       <c r="J11">
-        <v>9.615065019926769</v>
+        <v>7.964485702461115</v>
       </c>
       <c r="K11">
-        <v>16.15169382643252</v>
+        <v>11.68721011878814</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.461976719649646</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.05722237363196</v>
+        <v>9.159580034218287</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.71949945319241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.86568721535398</v>
+        <v>30.92189265272451</v>
       </c>
       <c r="C12">
-        <v>10.31330633125924</v>
+        <v>18.54934071321172</v>
       </c>
       <c r="D12">
-        <v>10.53767674951292</v>
+        <v>6.560650458033858</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.83262196846188</v>
+        <v>17.68619018300398</v>
       </c>
       <c r="G12">
-        <v>38.870518514577</v>
+        <v>18.16174386001904</v>
       </c>
       <c r="H12">
-        <v>11.73461831329009</v>
+        <v>4.048223969273145</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.852274225859245</v>
       </c>
       <c r="J12">
-        <v>9.700976206777145</v>
+        <v>7.748459231082902</v>
       </c>
       <c r="K12">
-        <v>16.36037334682399</v>
+        <v>11.3465983537403</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.527013765921252</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.99043025360247</v>
+        <v>8.562584306053145</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.1964845170936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.81261023859155</v>
+        <v>30.83376222006631</v>
       </c>
       <c r="C13">
-        <v>10.28553481655436</v>
+        <v>18.99723082251158</v>
       </c>
       <c r="D13">
-        <v>10.51136039067213</v>
+        <v>6.247210977037663</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.77719330754873</v>
+        <v>16.7939740037213</v>
       </c>
       <c r="G13">
-        <v>38.80195693255763</v>
+        <v>16.95497500268709</v>
       </c>
       <c r="H13">
-        <v>11.72811160665303</v>
+        <v>5.468571805113918</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.824035490194188</v>
       </c>
       <c r="J13">
-        <v>9.68247854105863</v>
+        <v>7.568567513872308</v>
       </c>
       <c r="K13">
-        <v>16.31560572729335</v>
+        <v>11.16064860595706</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.657277184534305</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.00480145909829</v>
+        <v>7.927022925624463</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.71990629730021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.63871404775095</v>
+        <v>30.56456735866152</v>
       </c>
       <c r="C14">
-        <v>10.19456300906237</v>
+        <v>19.22140627605167</v>
       </c>
       <c r="D14">
-        <v>10.42524497311665</v>
+        <v>6.019996069067818</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.59679079963529</v>
+        <v>16.17884180840175</v>
       </c>
       <c r="G14">
-        <v>38.57895559147268</v>
+        <v>16.0963195171023</v>
       </c>
       <c r="H14">
-        <v>11.70717937982975</v>
+        <v>6.4935966835728</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.785452090671301</v>
       </c>
       <c r="J14">
-        <v>9.622135131457773</v>
+        <v>7.459392928864672</v>
       </c>
       <c r="K14">
-        <v>16.1689411048519</v>
+        <v>11.10768117058684</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.785298946678725</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.05172114328969</v>
+        <v>7.466144421113481</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.40777391031549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.53158062552534</v>
+        <v>30.40020419799622</v>
       </c>
       <c r="C15">
-        <v>10.13852966041061</v>
+        <v>19.23723582680537</v>
       </c>
       <c r="D15">
-        <v>10.37227254615743</v>
+        <v>5.960505264588011</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.48656824537029</v>
+        <v>16.02882670481483</v>
       </c>
       <c r="G15">
-        <v>38.44281682414826</v>
+        <v>15.87535532712009</v>
       </c>
       <c r="H15">
-        <v>11.6945772395244</v>
+        <v>6.731099217089261</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.767856388467756</v>
       </c>
       <c r="J15">
-        <v>9.585159300607152</v>
+        <v>7.439035205444193</v>
       </c>
       <c r="K15">
-        <v>16.07859025973862</v>
+        <v>11.12103471609235</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.81863902801105</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.08050132297758</v>
+        <v>7.346236724417314</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.3381554163223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.90811408263634</v>
+        <v>29.44715007017039</v>
       </c>
       <c r="C16">
-        <v>9.812629142761226</v>
+        <v>18.74234199887335</v>
       </c>
       <c r="D16">
-        <v>10.06528155835148</v>
+        <v>5.922224224350864</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.85924106059611</v>
+        <v>16.10523862076029</v>
       </c>
       <c r="G16">
-        <v>37.66967267335179</v>
+        <v>15.91542461654781</v>
       </c>
       <c r="H16">
-        <v>11.62566093826382</v>
+        <v>6.523626855683563</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.671989655829827</v>
       </c>
       <c r="J16">
-        <v>9.373076545302888</v>
+        <v>7.516879275010008</v>
       </c>
       <c r="K16">
-        <v>15.55288040475182</v>
+        <v>11.35317845586323</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.776384978841747</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.24607112356143</v>
+        <v>7.265766061342288</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.44971890841807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.5170592973858</v>
+        <v>28.84922645400897</v>
       </c>
       <c r="C17">
-        <v>9.608381260340469</v>
+        <v>18.23152713054422</v>
       </c>
       <c r="D17">
-        <v>9.873908673953165</v>
+        <v>6.014446634723243</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.47828980092907</v>
+        <v>16.48928492447686</v>
       </c>
       <c r="G17">
-        <v>37.20166378436984</v>
+        <v>16.40683804356024</v>
       </c>
       <c r="H17">
-        <v>11.58626174558428</v>
+        <v>5.787928098502307</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.61922720980127</v>
       </c>
       <c r="J17">
-        <v>9.242828514745428</v>
+        <v>7.63354989641928</v>
       </c>
       <c r="K17">
-        <v>15.22322151795592</v>
+        <v>11.55407169303596</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.669985712256842</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.34823885533568</v>
+        <v>7.452807116887956</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.69892768769836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.28895297100718</v>
+        <v>28.50379545400163</v>
       </c>
       <c r="C18">
-        <v>9.48930144110488</v>
+        <v>17.63469667318784</v>
       </c>
       <c r="D18">
-        <v>9.762724903552874</v>
+        <v>6.23337622670241</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.26062791422369</v>
+        <v>17.200663981788</v>
       </c>
       <c r="G18">
-        <v>36.93480510673184</v>
+        <v>17.3661016966475</v>
       </c>
       <c r="H18">
-        <v>11.56463175232364</v>
+        <v>4.536149515006767</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.594561826821463</v>
       </c>
       <c r="J18">
-        <v>9.167873000571502</v>
+        <v>7.802159039636046</v>
       </c>
       <c r="K18">
-        <v>15.03095754552806</v>
+        <v>11.77927868474605</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.534093921261064</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.40723111987437</v>
+        <v>7.899232668196297</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.10746984084312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.21117084907098</v>
+        <v>28.39226514784145</v>
       </c>
       <c r="C19">
-        <v>9.448706592360494</v>
+        <v>17.07894208490995</v>
       </c>
       <c r="D19">
-        <v>9.724890020888203</v>
+        <v>6.544454899706952</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.18718274101809</v>
+        <v>18.09606415266124</v>
       </c>
       <c r="G19">
-        <v>36.84485290174102</v>
+        <v>18.56687476684312</v>
       </c>
       <c r="H19">
-        <v>11.55748284033208</v>
+        <v>3.050401599153971</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.607056445713439</v>
       </c>
       <c r="J19">
-        <v>9.142488687565651</v>
+        <v>7.993443671223906</v>
       </c>
       <c r="K19">
-        <v>14.9654023944159</v>
+        <v>12.02909653453916</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.445468013618679</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.42724491457721</v>
+        <v>8.539731655615261</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.59509121270538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.55901641328626</v>
+        <v>28.94370499148856</v>
       </c>
       <c r="C20">
-        <v>9.630289255863152</v>
+        <v>16.58523490700285</v>
       </c>
       <c r="D20">
-        <v>9.894395840623288</v>
+        <v>7.090537813033023</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.51869301786443</v>
+        <v>19.53319694389838</v>
       </c>
       <c r="G20">
-        <v>37.25124363451677</v>
+        <v>20.50292478663579</v>
       </c>
       <c r="H20">
-        <v>11.59034851614957</v>
+        <v>1.657335023663572</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.702785772384989</v>
       </c>
       <c r="J20">
-        <v>9.256698100967442</v>
+        <v>8.260627927367937</v>
       </c>
       <c r="K20">
-        <v>15.2585882989093</v>
+        <v>12.35149852436516</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.478497387754476</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.33733952290721</v>
+        <v>9.651799105157918</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.3343224303093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.68991997963408</v>
+        <v>30.67828873714312</v>
       </c>
       <c r="C21">
-        <v>10.22134824912733</v>
+        <v>17.2702805545775</v>
       </c>
       <c r="D21">
-        <v>10.45058590962623</v>
+        <v>7.330156598019199</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.64972127894431</v>
+        <v>19.91843985382686</v>
       </c>
       <c r="G21">
-        <v>38.64436150599126</v>
+        <v>21.09278576664955</v>
       </c>
       <c r="H21">
-        <v>11.71328179919256</v>
+        <v>1.89914970184574</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.88942531153188</v>
       </c>
       <c r="J21">
-        <v>9.63986236621832</v>
+        <v>8.236678627416268</v>
       </c>
       <c r="K21">
-        <v>16.21212714257651</v>
+        <v>12.08657780732477</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.51050302490207</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.03793130157316</v>
+        <v>10.11891631306218</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.4292973935022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.40133582268719</v>
+        <v>31.76056588235474</v>
       </c>
       <c r="C22">
-        <v>10.5937019098304</v>
+        <v>17.70729197729776</v>
       </c>
       <c r="D22">
-        <v>10.80406855561923</v>
+        <v>7.460294172032484</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.40146059749329</v>
+        <v>20.14003672879185</v>
       </c>
       <c r="G22">
-        <v>39.57529334781623</v>
+        <v>21.45070721785251</v>
       </c>
       <c r="H22">
-        <v>11.80337650009399</v>
+        <v>2.051283657954285</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.002966075174283</v>
       </c>
       <c r="J22">
-        <v>9.88969694256723</v>
+        <v>8.218964923948095</v>
       </c>
       <c r="K22">
-        <v>16.81222461120832</v>
+        <v>11.91135537069165</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.526595131250856</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.84408869114227</v>
+        <v>10.36329487547689</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.48435548051916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.02414174972261</v>
+        <v>31.18787566875924</v>
       </c>
       <c r="C23">
-        <v>10.39622823835797</v>
+        <v>17.44629646364218</v>
       </c>
       <c r="D23">
-        <v>10.61632838698433</v>
+        <v>7.390327344161028</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.99910852852887</v>
+        <v>20.04604793579759</v>
       </c>
       <c r="G23">
-        <v>39.07657437534171</v>
+        <v>21.30095132282209</v>
       </c>
       <c r="H23">
-        <v>11.75437142439209</v>
+        <v>1.970988565644299</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.937819041726035</v>
       </c>
       <c r="J23">
-        <v>9.756417815332496</v>
+        <v>8.235273700052183</v>
       </c>
       <c r="K23">
-        <v>16.4940277741696</v>
+        <v>12.0184970014331</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.519437432709039</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.94738737109154</v>
+        <v>10.22808528233215</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.47226665954594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.54005783619051</v>
+        <v>28.91625012504316</v>
       </c>
       <c r="C24">
-        <v>9.620389809505616</v>
+        <v>16.4742276753758</v>
       </c>
       <c r="D24">
-        <v>9.885137206921232</v>
+        <v>7.122346125899029</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.50042250729034</v>
+        <v>19.67022614896672</v>
       </c>
       <c r="G24">
-        <v>37.22882170964859</v>
+        <v>20.6978089901839</v>
       </c>
       <c r="H24">
-        <v>11.58849771284812</v>
+        <v>1.659519917279171</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.694609748214739</v>
       </c>
       <c r="J24">
-        <v>9.250427889293016</v>
+        <v>8.294150740021722</v>
       </c>
       <c r="K24">
-        <v>15.24260751334704</v>
+        <v>12.41260246007955</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.48924090141305</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.34226631571081</v>
+        <v>9.710073472454136</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.41751421037288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.81724780527164</v>
+        <v>26.24543791326101</v>
       </c>
       <c r="C25">
-        <v>8.722131707033705</v>
+        <v>15.362724935192</v>
       </c>
       <c r="D25">
-        <v>9.054163873553605</v>
+        <v>6.825568270909957</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.93973609672307</v>
+        <v>19.30937638372295</v>
       </c>
       <c r="G25">
-        <v>35.32507511076206</v>
+        <v>20.11786885722168</v>
       </c>
       <c r="H25">
-        <v>11.44867735412967</v>
+        <v>1.818071355444355</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.560346229677485</v>
       </c>
       <c r="J25">
-        <v>8.703333264412038</v>
+        <v>8.375619062066116</v>
       </c>
       <c r="K25">
-        <v>13.79105831876524</v>
+        <v>12.86138755684161</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.454760520217762</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.77703892125951</v>
+        <v>9.121515572388748</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.40009041874754</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.08760880592464</v>
+        <v>24.11910834081038</v>
       </c>
       <c r="C2">
-        <v>14.41151183245689</v>
+        <v>14.41171936931981</v>
       </c>
       <c r="D2">
-        <v>6.599810768043968</v>
+        <v>6.601061399645326</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.14575578849948</v>
+        <v>18.86758914823269</v>
       </c>
       <c r="G2">
-        <v>19.86248609597643</v>
+        <v>18.74495214450128</v>
       </c>
       <c r="H2">
-        <v>2.093682329434692</v>
+        <v>2.03361900385562</v>
       </c>
       <c r="I2">
-        <v>2.74843326293833</v>
+        <v>2.66525868897512</v>
       </c>
       <c r="J2">
-        <v>8.467478550798145</v>
+        <v>8.852367356665912</v>
       </c>
       <c r="K2">
-        <v>13.24458369801882</v>
+        <v>12.94655117483904</v>
       </c>
       <c r="L2">
-        <v>6.431471078391433</v>
+        <v>11.02956257028338</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.074804760235722</v>
       </c>
       <c r="N2">
-        <v>8.649211556853192</v>
+        <v>6.382333714720172</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.753756694735088</v>
       </c>
       <c r="Q2">
-        <v>13.46527676377385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.25806801962433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.50361578806486</v>
+        <v>22.5404283450926</v>
       </c>
       <c r="C3">
-        <v>13.7812578229546</v>
+        <v>13.69251659489127</v>
       </c>
       <c r="D3">
-        <v>6.445184152120009</v>
+        <v>6.449375329641197</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.02028167649494</v>
+        <v>18.76907066326692</v>
       </c>
       <c r="G3">
-        <v>19.66149468393043</v>
+        <v>18.60836623161074</v>
       </c>
       <c r="H3">
-        <v>2.290093266316513</v>
+        <v>2.218155743095321</v>
       </c>
       <c r="I3">
-        <v>2.899400797816346</v>
+        <v>2.800855688931287</v>
       </c>
       <c r="J3">
-        <v>8.527660766295</v>
+        <v>8.88365993198229</v>
       </c>
       <c r="K3">
-        <v>13.49624695237943</v>
+        <v>13.19599419939713</v>
       </c>
       <c r="L3">
-        <v>6.412399248542899</v>
+        <v>11.23344132214014</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.288547074170683</v>
       </c>
       <c r="N3">
-        <v>8.323986927423819</v>
+        <v>6.365192982301089</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.425724641262143</v>
       </c>
       <c r="Q3">
-        <v>13.5020595316393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.30907796510478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.47088555310328</v>
+        <v>21.51115412486949</v>
       </c>
       <c r="C4">
-        <v>13.38162716177705</v>
+        <v>13.23558097159044</v>
       </c>
       <c r="D4">
-        <v>6.349222610568636</v>
+        <v>6.355426734476002</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.95273567883404</v>
+        <v>18.71644148274745</v>
       </c>
       <c r="G4">
-        <v>19.55300418161636</v>
+        <v>18.54058363944497</v>
       </c>
       <c r="H4">
-        <v>2.415073784689278</v>
+        <v>2.335619947368713</v>
       </c>
       <c r="I4">
-        <v>2.99611400070074</v>
+        <v>2.888038794813295</v>
       </c>
       <c r="J4">
-        <v>8.568121759708884</v>
+        <v>8.904497556930307</v>
       </c>
       <c r="K4">
-        <v>13.6556952348737</v>
+        <v>13.35309982382628</v>
       </c>
       <c r="L4">
-        <v>6.400022681092941</v>
+        <v>11.3644406056769</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.436522426905549</v>
       </c>
       <c r="N4">
-        <v>8.118426120239361</v>
+        <v>6.354050330057283</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.218759978606876</v>
       </c>
       <c r="Q4">
-        <v>13.53248501748766</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.34682019029945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03475545501945</v>
+        <v>21.07648679193246</v>
       </c>
       <c r="C5">
-        <v>13.22485213461589</v>
+        <v>13.05499635105158</v>
       </c>
       <c r="D5">
-        <v>6.310097451752224</v>
+        <v>6.317174164375775</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.92062408949054</v>
+        <v>18.69009718262399</v>
       </c>
       <c r="G5">
-        <v>19.50042648359322</v>
+        <v>18.5047354545606</v>
       </c>
       <c r="H5">
-        <v>2.467354176851198</v>
+        <v>2.384776851241762</v>
       </c>
       <c r="I5">
-        <v>3.039326325159385</v>
+        <v>2.927843934980821</v>
       </c>
       <c r="J5">
-        <v>8.583603050608096</v>
+        <v>8.911555757112378</v>
       </c>
       <c r="K5">
-        <v>13.71837425171044</v>
+        <v>13.4147039117586</v>
       </c>
       <c r="L5">
-        <v>6.394365055765778</v>
+        <v>11.41552370546694</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.49964323047959</v>
       </c>
       <c r="N5">
-        <v>8.034987490967717</v>
+        <v>6.348926283133008</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>8.134795248920405</v>
       </c>
       <c r="Q5">
-        <v>13.54200973725196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.35905466262855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96128846062088</v>
+        <v>21.00326073068683</v>
       </c>
       <c r="C6">
-        <v>13.20980998327657</v>
+        <v>13.03617836027411</v>
       </c>
       <c r="D6">
-        <v>6.303827638924707</v>
+        <v>6.311051450194534</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.90695479660071</v>
+        <v>18.67748955024499</v>
       </c>
       <c r="G6">
-        <v>19.47719619862462</v>
+        <v>18.48419624381408</v>
       </c>
       <c r="H6">
-        <v>2.47638727288962</v>
+        <v>2.393284912434261</v>
       </c>
       <c r="I6">
-        <v>3.050152042288007</v>
+        <v>2.938763002146602</v>
       </c>
       <c r="J6">
-        <v>8.583945444939149</v>
+        <v>8.910511179037449</v>
       </c>
       <c r="K6">
-        <v>13.72455552604827</v>
+        <v>13.42083447650032</v>
       </c>
       <c r="L6">
-        <v>6.392873824078031</v>
+        <v>11.41951840275636</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.508846936357745</v>
       </c>
       <c r="N6">
-        <v>8.023153449894915</v>
+        <v>6.347547375699751</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>8.122825700957138</v>
       </c>
       <c r="Q6">
-        <v>13.53786810910041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.35543756268565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.4647193811693</v>
+        <v>21.5048266679005</v>
       </c>
       <c r="C7">
-        <v>13.40963935636007</v>
+        <v>13.25851464767809</v>
       </c>
       <c r="D7">
-        <v>6.349345273935671</v>
+        <v>6.358352608809473</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.92921846965161</v>
+        <v>18.68149636029594</v>
       </c>
       <c r="G7">
-        <v>19.51222863026197</v>
+        <v>18.57640416588291</v>
       </c>
       <c r="H7">
-        <v>2.416531720198801</v>
+        <v>2.337501763570018</v>
       </c>
       <c r="I7">
-        <v>3.006188658919946</v>
+        <v>2.900252858361726</v>
       </c>
       <c r="J7">
-        <v>8.562107838664518</v>
+        <v>8.866789011087379</v>
       </c>
       <c r="K7">
-        <v>13.64478856388309</v>
+        <v>13.33874383243091</v>
       </c>
       <c r="L7">
-        <v>6.39849128464501</v>
+        <v>11.34882052266543</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.431275447240742</v>
       </c>
       <c r="N7">
-        <v>8.12297121103752</v>
+        <v>6.352250722973086</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.223162173727518</v>
       </c>
       <c r="Q7">
-        <v>13.51668241630019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.32230465424445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.55347736243393</v>
+        <v>23.58625413119467</v>
       </c>
       <c r="C8">
-        <v>14.23501421317018</v>
+        <v>14.18911708174559</v>
       </c>
       <c r="D8">
-        <v>6.547579675065207</v>
+        <v>6.558898161060964</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.07037581791356</v>
+        <v>18.76347546263012</v>
       </c>
       <c r="G8">
-        <v>19.73787931689963</v>
+        <v>18.89555496304321</v>
       </c>
       <c r="H8">
-        <v>2.161425610597816</v>
+        <v>2.098756762317491</v>
       </c>
       <c r="I8">
-        <v>2.811868263853925</v>
+        <v>2.727021699030308</v>
       </c>
       <c r="J8">
-        <v>8.47928311957455</v>
+        <v>8.751414695494844</v>
       </c>
       <c r="K8">
-        <v>13.31478846659846</v>
+        <v>13.00443468607082</v>
       </c>
       <c r="L8">
-        <v>6.423205527788949</v>
+        <v>11.07247035270132</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.129995761199098</v>
       </c>
       <c r="N8">
-        <v>8.545501841223437</v>
+        <v>6.373784102498046</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.648877250407971</v>
       </c>
       <c r="Q8">
-        <v>13.45531140957537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.22391078401277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.17530604863133</v>
+        <v>27.19546252431837</v>
       </c>
       <c r="C9">
-        <v>15.6974874202518</v>
+        <v>15.85396016894281</v>
       </c>
       <c r="D9">
-        <v>6.925351538863318</v>
+        <v>6.932449931815811</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.46477787410746</v>
+        <v>19.07189725434776</v>
       </c>
       <c r="G9">
-        <v>20.37207908540294</v>
+        <v>19.44061287958521</v>
       </c>
       <c r="H9">
-        <v>1.694064616920091</v>
+        <v>1.660067363545024</v>
       </c>
       <c r="I9">
-        <v>2.510163197566985</v>
+        <v>2.565213830856133</v>
       </c>
       <c r="J9">
-        <v>8.356973403574829</v>
+        <v>8.661047188559861</v>
       </c>
       <c r="K9">
-        <v>12.7283361713809</v>
+        <v>12.41375875694582</v>
       </c>
       <c r="L9">
-        <v>6.468919541336046</v>
+        <v>10.61056444718201</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.69576694678279</v>
       </c>
       <c r="N9">
-        <v>9.314625205352844</v>
+        <v>6.414729404362126</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.426568199536659</v>
       </c>
       <c r="Q9">
-        <v>13.4288231892283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.1454252716415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.54875328754107</v>
+        <v>29.55928150774176</v>
       </c>
       <c r="C10">
-        <v>16.78103645870872</v>
+        <v>17.03672870799871</v>
       </c>
       <c r="D10">
-        <v>7.14891655735275</v>
+        <v>7.16815433246405</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.66197626924448</v>
+        <v>19.14458928759034</v>
       </c>
       <c r="G10">
-        <v>20.72474227202225</v>
+        <v>20.1774306256501</v>
       </c>
       <c r="H10">
-        <v>1.741420416859082</v>
+        <v>1.753160159360842</v>
       </c>
       <c r="I10">
-        <v>2.75337000052063</v>
+        <v>2.783547833473239</v>
       </c>
       <c r="J10">
-        <v>8.255731177036225</v>
+        <v>8.405243165045158</v>
       </c>
       <c r="K10">
-        <v>12.27158373682698</v>
+        <v>11.93599888336947</v>
       </c>
       <c r="L10">
-        <v>6.487456199747434</v>
+        <v>10.25894269536154</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.413783781008086</v>
       </c>
       <c r="N10">
-        <v>9.754623598664741</v>
+        <v>6.430641837910753</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.871573522346576</v>
       </c>
       <c r="Q10">
-        <v>13.37486881675404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.00244622009885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.55416210550444</v>
+        <v>30.56026703474361</v>
       </c>
       <c r="C11">
-        <v>17.87404985460767</v>
+        <v>18.04432139378659</v>
       </c>
       <c r="D11">
-        <v>6.854760320645435</v>
+        <v>6.899060895530098</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.59999194167482</v>
+        <v>18.01260809374502</v>
       </c>
       <c r="G11">
-        <v>19.35668654611729</v>
+        <v>19.82864648489838</v>
       </c>
       <c r="H11">
-        <v>2.722416448050552</v>
+        <v>2.723523116258501</v>
       </c>
       <c r="I11">
-        <v>2.835854839390269</v>
+        <v>2.857045697880218</v>
       </c>
       <c r="J11">
-        <v>7.964485702461115</v>
+        <v>7.861104182366425</v>
       </c>
       <c r="K11">
-        <v>11.68721011878814</v>
+        <v>11.39539570318466</v>
       </c>
       <c r="L11">
-        <v>6.461976719649646</v>
+        <v>9.917424552832459</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.97166726953801</v>
       </c>
       <c r="N11">
-        <v>9.159580034218287</v>
+        <v>6.418481490525759</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>9.260558869510035</v>
       </c>
       <c r="Q11">
-        <v>12.71949945319241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.29209136739935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.92189265272451</v>
+        <v>30.92663787359371</v>
       </c>
       <c r="C12">
-        <v>18.54934071321172</v>
+        <v>18.63743609585143</v>
       </c>
       <c r="D12">
-        <v>6.560650458033858</v>
+        <v>6.612774131232246</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.68619018300398</v>
+        <v>17.11039433533153</v>
       </c>
       <c r="G12">
-        <v>18.16174386001904</v>
+        <v>19.14275517735062</v>
       </c>
       <c r="H12">
-        <v>4.048223969273145</v>
+        <v>4.047616506724203</v>
       </c>
       <c r="I12">
-        <v>2.852274225859245</v>
+        <v>2.870006748324785</v>
       </c>
       <c r="J12">
-        <v>7.748459231082902</v>
+        <v>7.602201219515586</v>
       </c>
       <c r="K12">
-        <v>11.3465983537403</v>
+        <v>11.11075888153034</v>
       </c>
       <c r="L12">
-        <v>6.527013765921252</v>
+        <v>9.762122574626252</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.699266315596265</v>
       </c>
       <c r="N12">
-        <v>8.562584306053145</v>
+        <v>6.492980639965832</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.649021816666993</v>
       </c>
       <c r="Q12">
-        <v>12.1964845170936</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.77715278656298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.83376222006631</v>
+        <v>30.83964208101474</v>
       </c>
       <c r="C13">
-        <v>18.99723082251158</v>
+        <v>19.01190601986023</v>
       </c>
       <c r="D13">
-        <v>6.247210977037663</v>
+        <v>6.289378599756559</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.7939740037213</v>
+        <v>16.31783426790087</v>
       </c>
       <c r="G13">
-        <v>16.95497500268709</v>
+        <v>17.88659686674048</v>
       </c>
       <c r="H13">
-        <v>5.468571805113918</v>
+        <v>5.468253877411882</v>
       </c>
       <c r="I13">
-        <v>2.824035490194188</v>
+        <v>2.844604454106653</v>
       </c>
       <c r="J13">
-        <v>7.568567513872308</v>
+        <v>7.531066144428271</v>
       </c>
       <c r="K13">
-        <v>11.16064860595706</v>
+        <v>10.98730922602593</v>
       </c>
       <c r="L13">
-        <v>6.657277184534305</v>
+        <v>9.70325313716617</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.547424913601588</v>
       </c>
       <c r="N13">
-        <v>7.927022925624463</v>
+        <v>6.629617218859431</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.99923806879929</v>
       </c>
       <c r="Q13">
-        <v>11.71990629730021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.37596519124946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.56456735866152</v>
+        <v>30.57232665063738</v>
       </c>
       <c r="C14">
-        <v>19.22140627605167</v>
+        <v>19.18756831789059</v>
       </c>
       <c r="D14">
-        <v>6.019996069067818</v>
+        <v>6.048425202517844</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.17884180840175</v>
+        <v>15.80711009700531</v>
       </c>
       <c r="G14">
-        <v>16.0963195171023</v>
+        <v>16.74985944296078</v>
       </c>
       <c r="H14">
-        <v>6.4935966835728</v>
+        <v>6.49228934447298</v>
       </c>
       <c r="I14">
-        <v>2.785452090671301</v>
+        <v>2.811159603904313</v>
       </c>
       <c r="J14">
-        <v>7.459392928864672</v>
+        <v>7.546880724713757</v>
       </c>
       <c r="K14">
-        <v>11.10768117058684</v>
+        <v>10.97221854541741</v>
       </c>
       <c r="L14">
-        <v>6.785298946678725</v>
+        <v>9.697270288027417</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.504594331755031</v>
       </c>
       <c r="N14">
-        <v>7.466144421113481</v>
+        <v>6.759789745103991</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.528912276507656</v>
       </c>
       <c r="Q14">
-        <v>11.40777391031549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.14217707528002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.40020419799622</v>
+        <v>30.40894578211247</v>
       </c>
       <c r="C15">
-        <v>19.23723582680537</v>
+        <v>19.19310625861363</v>
       </c>
       <c r="D15">
-        <v>5.960505264588011</v>
+        <v>5.982949696794058</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.02882670481483</v>
+        <v>15.69698465861484</v>
       </c>
       <c r="G15">
-        <v>15.87535532712009</v>
+        <v>16.36033103813709</v>
       </c>
       <c r="H15">
-        <v>6.731099217089261</v>
+        <v>6.729287538431633</v>
       </c>
       <c r="I15">
-        <v>2.767856388467756</v>
+        <v>2.796695819589373</v>
       </c>
       <c r="J15">
-        <v>7.439035205444193</v>
+        <v>7.578683317935693</v>
       </c>
       <c r="K15">
-        <v>11.12103471609235</v>
+        <v>10.9933915829012</v>
       </c>
       <c r="L15">
-        <v>6.81863902801105</v>
+        <v>9.706267004007502</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.51697780995472</v>
       </c>
       <c r="N15">
-        <v>7.346236724417314</v>
+        <v>6.793301187331832</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.40687183216283</v>
       </c>
       <c r="Q15">
-        <v>11.3381554163223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.10234126631668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.44715007017039</v>
+        <v>29.4608082522387</v>
       </c>
       <c r="C16">
-        <v>18.74234199887335</v>
+        <v>18.71026883999006</v>
       </c>
       <c r="D16">
-        <v>5.922224224350864</v>
+        <v>5.92300695802922</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.10523862076029</v>
+        <v>15.89242445576732</v>
       </c>
       <c r="G16">
-        <v>15.91542461654781</v>
+        <v>15.59354910731623</v>
       </c>
       <c r="H16">
-        <v>6.523626855683563</v>
+        <v>6.518624967666291</v>
       </c>
       <c r="I16">
-        <v>2.671989655829827</v>
+        <v>2.714344327783371</v>
       </c>
       <c r="J16">
-        <v>7.516879275010008</v>
+        <v>7.858301334302382</v>
       </c>
       <c r="K16">
-        <v>11.35317845586323</v>
+        <v>11.21993710016211</v>
       </c>
       <c r="L16">
-        <v>6.776384978841747</v>
+        <v>9.806258874144405</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.720375020708465</v>
       </c>
       <c r="N16">
-        <v>7.265766061342288</v>
+        <v>6.75041708931732</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.327857574777445</v>
       </c>
       <c r="Q16">
-        <v>11.44971890841807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.30189926047256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.84922645400897</v>
+        <v>28.86549416275852</v>
       </c>
       <c r="C17">
-        <v>18.23152713054422</v>
+        <v>18.2282851016955</v>
       </c>
       <c r="D17">
-        <v>6.014446634723243</v>
+        <v>6.008045189463875</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.48928492447686</v>
+        <v>16.30132242835643</v>
       </c>
       <c r="G17">
-        <v>16.40683804356024</v>
+        <v>15.72809676338419</v>
       </c>
       <c r="H17">
-        <v>5.787928098502307</v>
+        <v>5.780195616704138</v>
       </c>
       <c r="I17">
-        <v>2.61922720980127</v>
+        <v>2.668882180639677</v>
       </c>
       <c r="J17">
-        <v>7.63354989641928</v>
+        <v>8.057828533819745</v>
       </c>
       <c r="K17">
-        <v>11.55407169303596</v>
+        <v>11.40415113036303</v>
       </c>
       <c r="L17">
-        <v>6.669985712256842</v>
+        <v>9.902048918954222</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.887024661159775</v>
       </c>
       <c r="N17">
-        <v>7.452807116887956</v>
+        <v>6.643002297605811</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.520639181683218</v>
       </c>
       <c r="Q17">
-        <v>11.69892768769836</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.56920850740934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.50379545400163</v>
+        <v>28.52117754564014</v>
       </c>
       <c r="C18">
-        <v>17.63469667318784</v>
+        <v>17.68631592621825</v>
       </c>
       <c r="D18">
-        <v>6.23337622670241</v>
+        <v>6.225966028196042</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.200663981788</v>
+        <v>16.98283328835686</v>
       </c>
       <c r="G18">
-        <v>17.3661016966475</v>
+        <v>16.49511768005251</v>
       </c>
       <c r="H18">
-        <v>4.536149515006767</v>
+        <v>4.525207455055576</v>
       </c>
       <c r="I18">
-        <v>2.594561826821463</v>
+        <v>2.646079980966896</v>
       </c>
       <c r="J18">
-        <v>7.802159039636046</v>
+        <v>8.246755381769972</v>
       </c>
       <c r="K18">
-        <v>11.77927868474605</v>
+        <v>11.60015292012409</v>
       </c>
       <c r="L18">
-        <v>6.534093921261064</v>
+        <v>10.02484148600375</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.05784076371412</v>
       </c>
       <c r="N18">
-        <v>7.899232668196297</v>
+        <v>6.504286115111432</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.977437010465661</v>
       </c>
       <c r="Q18">
-        <v>12.10746984084312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.95610582296965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.39226514784145</v>
+        <v>28.40948997355149</v>
       </c>
       <c r="C19">
-        <v>17.07894208490995</v>
+        <v>17.20354567868319</v>
       </c>
       <c r="D19">
-        <v>6.544454899706952</v>
+        <v>6.539233140873432</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.09606415266124</v>
+        <v>17.81445463326489</v>
       </c>
       <c r="G19">
-        <v>18.56687476684312</v>
+        <v>17.57658783108607</v>
       </c>
       <c r="H19">
-        <v>3.050401599153971</v>
+        <v>3.034871024636629</v>
       </c>
       <c r="I19">
-        <v>2.607056445713439</v>
+        <v>2.658440236826681</v>
       </c>
       <c r="J19">
-        <v>7.993443671223906</v>
+        <v>8.423238887672891</v>
       </c>
       <c r="K19">
-        <v>12.02909653453916</v>
+        <v>11.807601605254</v>
       </c>
       <c r="L19">
-        <v>6.445468013618679</v>
+        <v>10.169152412442</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.234896390136757</v>
       </c>
       <c r="N19">
-        <v>8.539731655615261</v>
+        <v>6.408925277543501</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.631720693271202</v>
       </c>
       <c r="Q19">
-        <v>12.59509121270538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.39767795039368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.94370499148856</v>
+        <v>28.9572293651188</v>
       </c>
       <c r="C20">
-        <v>16.58523490700285</v>
+        <v>16.8317200367924</v>
       </c>
       <c r="D20">
-        <v>7.090537813033023</v>
+        <v>7.097325418697522</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.53319694389838</v>
+        <v>19.09174230857044</v>
       </c>
       <c r="G20">
-        <v>20.50292478663579</v>
+        <v>19.59016291611663</v>
       </c>
       <c r="H20">
-        <v>1.657335023663572</v>
+        <v>1.67593352955266</v>
       </c>
       <c r="I20">
-        <v>2.702785772384989</v>
+        <v>2.744128111874383</v>
       </c>
       <c r="J20">
-        <v>8.260627927367937</v>
+        <v>8.559368973705148</v>
       </c>
       <c r="K20">
-        <v>12.35149852436516</v>
+        <v>12.03907741044214</v>
       </c>
       <c r="L20">
-        <v>6.478497387754476</v>
+        <v>10.33383127310828</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.463618388257334</v>
       </c>
       <c r="N20">
-        <v>9.651799105157918</v>
+        <v>6.423688012216437</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.766996958886072</v>
       </c>
       <c r="Q20">
-        <v>13.3343224303093</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.01982360317856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.67828873714312</v>
+        <v>30.68191775153267</v>
       </c>
       <c r="C21">
-        <v>17.2702805545775</v>
+        <v>17.52362284323309</v>
       </c>
       <c r="D21">
-        <v>7.330156598019199</v>
+        <v>7.396020892226245</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.91843985382686</v>
+        <v>19.14951517891974</v>
       </c>
       <c r="G21">
-        <v>21.09278576664955</v>
+        <v>21.85617221284469</v>
       </c>
       <c r="H21">
-        <v>1.89914970184574</v>
+        <v>1.895048567184739</v>
       </c>
       <c r="I21">
-        <v>2.88942531153188</v>
+        <v>2.905194381499225</v>
       </c>
       <c r="J21">
-        <v>8.236678627416268</v>
+        <v>7.906120901028368</v>
       </c>
       <c r="K21">
-        <v>12.08657780732477</v>
+        <v>11.6723124579045</v>
       </c>
       <c r="L21">
-        <v>6.51050302490207</v>
+        <v>10.07880898933997</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.264059649831868</v>
       </c>
       <c r="N21">
-        <v>10.11891631306218</v>
+        <v>6.446024212966687</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>10.24161174779127</v>
       </c>
       <c r="Q21">
-        <v>13.4292973935022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.86219239160652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.76056588235474</v>
+        <v>31.75778280612719</v>
       </c>
       <c r="C22">
-        <v>17.70729197729776</v>
+        <v>17.954630012389</v>
       </c>
       <c r="D22">
-        <v>7.460294172032484</v>
+        <v>7.568588205061723</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.14003672879185</v>
+        <v>19.14357404728593</v>
       </c>
       <c r="G22">
-        <v>21.45070721785251</v>
+        <v>23.42865186278078</v>
       </c>
       <c r="H22">
-        <v>2.051283657954285</v>
+        <v>2.032804978155983</v>
       </c>
       <c r="I22">
-        <v>3.002966075174283</v>
+        <v>3.001250038684347</v>
       </c>
       <c r="J22">
-        <v>8.218964923948095</v>
+        <v>7.521990086866476</v>
       </c>
       <c r="K22">
-        <v>11.91135537069165</v>
+        <v>11.4246135282576</v>
       </c>
       <c r="L22">
-        <v>6.526595131250856</v>
+        <v>9.916223802856159</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.13677620161604</v>
       </c>
       <c r="N22">
-        <v>10.36329487547689</v>
+        <v>6.456869281827377</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.49003780395397</v>
       </c>
       <c r="Q22">
-        <v>13.48435548051916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.7383142219184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.18787566875924</v>
+        <v>31.18878860265728</v>
       </c>
       <c r="C23">
-        <v>17.44629646364218</v>
+        <v>17.70743144022549</v>
       </c>
       <c r="D23">
-        <v>7.390327344161028</v>
+        <v>7.469033512997718</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.04604793579759</v>
+        <v>19.20010458476775</v>
       </c>
       <c r="G23">
-        <v>21.30095132282209</v>
+        <v>22.43354819156733</v>
       </c>
       <c r="H23">
-        <v>1.970988565644299</v>
+        <v>1.960875811336096</v>
       </c>
       <c r="I23">
-        <v>2.937819041726035</v>
+        <v>2.944685040263537</v>
       </c>
       <c r="J23">
-        <v>8.235273700052183</v>
+        <v>7.778592288666081</v>
       </c>
       <c r="K23">
-        <v>12.0184970014331</v>
+        <v>11.57806388650448</v>
       </c>
       <c r="L23">
-        <v>6.519437432709039</v>
+        <v>10.01397087831755</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.225543240139934</v>
       </c>
       <c r="N23">
-        <v>10.22808528233215</v>
+        <v>6.452889054122643</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.35272555131206</v>
       </c>
       <c r="Q23">
-        <v>13.47226665954594</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.8448627017271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.91625012504316</v>
+        <v>28.9298044105842</v>
       </c>
       <c r="C24">
-        <v>16.4742276753758</v>
+        <v>16.7268716808114</v>
       </c>
       <c r="D24">
-        <v>7.122346125899029</v>
+        <v>7.129036596786348</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.67022614896672</v>
+        <v>19.22234231297879</v>
       </c>
       <c r="G24">
-        <v>20.6978089901839</v>
+        <v>19.76134738621342</v>
       </c>
       <c r="H24">
-        <v>1.659519917279171</v>
+        <v>1.67823893400931</v>
       </c>
       <c r="I24">
-        <v>2.694609748214739</v>
+        <v>2.733762617221316</v>
       </c>
       <c r="J24">
-        <v>8.294150740021722</v>
+        <v>8.593787674471709</v>
       </c>
       <c r="K24">
-        <v>12.41260246007955</v>
+        <v>12.09198276896554</v>
       </c>
       <c r="L24">
-        <v>6.48924090141305</v>
+        <v>10.37016094254395</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.508902028811307</v>
       </c>
       <c r="N24">
-        <v>9.710073472454136</v>
+        <v>6.432731173886561</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.826987703705214</v>
       </c>
       <c r="Q24">
-        <v>13.41751421037288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.09809453362498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.24543791326101</v>
+        <v>26.26913010976872</v>
       </c>
       <c r="C25">
-        <v>15.362724935192</v>
+        <v>15.47434826758785</v>
       </c>
       <c r="D25">
-        <v>6.825568270909957</v>
+        <v>6.829866831197652</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.30937638372295</v>
+        <v>18.95849652016125</v>
       </c>
       <c r="G25">
-        <v>20.11786885722168</v>
+        <v>19.10181243854647</v>
       </c>
       <c r="H25">
-        <v>1.818071355444355</v>
+        <v>1.775898466204715</v>
       </c>
       <c r="I25">
-        <v>2.560346229677485</v>
+        <v>2.504841173254498</v>
       </c>
       <c r="J25">
-        <v>8.375619062066116</v>
+        <v>8.717529454532702</v>
       </c>
       <c r="K25">
-        <v>12.86138755684161</v>
+        <v>12.55610126361141</v>
       </c>
       <c r="L25">
-        <v>6.454760520217762</v>
+        <v>10.71939146153725</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.7866098154784</v>
       </c>
       <c r="N25">
-        <v>9.121515572388748</v>
+        <v>6.40241730900855</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>9.230765095630883</v>
       </c>
       <c r="Q25">
-        <v>13.40009041874754</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.14571892472047</v>
       </c>
     </row>
   </sheetData>
